--- a/ExampleFolder/InputData/v_example/FU analysis data/GHA/GHA FU Analysis.xlsx
+++ b/ExampleFolder/InputData/v_example/FU analysis data/GHA/GHA FU Analysis.xlsx
@@ -1,30 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Dropbox\Fellowship 1960-2015 PFU database\InputData\v1.1\FU analysis data\GHA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\CL-PFU-JOSS-Paper\ExampleFolder\InputData\v_example\FU analysis data\GHA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607D93B9-7DF1-4471-8565-9528BDF5017D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1910B4F6-F021-49C5-9204-7A1F415210CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1620" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FU Allocations" sheetId="1" r:id="rId1"/>
-    <sheet name="GHA_Res_Elec" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="\0">[1]TABLE1a!$U$1:$U$7</definedName>
@@ -64,12 +62,12 @@
     <definedName name="_tuv2">!#REF!</definedName>
     <definedName name="_Yr01">!#REF!</definedName>
     <definedName name="_Yr02">!#REF!</definedName>
-    <definedName name="a_lf">'[3]Manual labor'!$D$27</definedName>
-    <definedName name="a_ml">'[3]Manual labor'!$D$36</definedName>
+    <definedName name="a_lf">'[2]Manual labor'!$D$27</definedName>
+    <definedName name="a_ml">'[2]Manual labor'!$D$36</definedName>
     <definedName name="activeCell">#REF!</definedName>
     <definedName name="ALL">#N/A</definedName>
-    <definedName name="alpha_l">'[3]World Bank Employment Data'!$D$37</definedName>
-    <definedName name="alpha_m">'[3]World Bank Employment Data'!$D$48</definedName>
+    <definedName name="alpha_l">'[2]World Bank Employment Data'!$D$37</definedName>
+    <definedName name="alpha_m">'[2]World Bank Employment Data'!$D$48</definedName>
     <definedName name="ANNBELGIUM">[1]TABLE5!$D$5:$D$12</definedName>
     <definedName name="ANNDVR">[1]TABLE4AL!$D$6:$D$12</definedName>
     <definedName name="ANNENG">[1]TABLE4AL!$F$6:$F$12</definedName>
@@ -81,8 +79,8 @@
     <definedName name="ANNUAL">#REF!</definedName>
     <definedName name="ANNUK">[1]TABLE1a!$E$8:$E$14</definedName>
     <definedName name="ANNUT">[1]TABLE1a!$M$8:$M$14</definedName>
-    <definedName name="b_lf">'[3]Manual labor'!$D$28</definedName>
-    <definedName name="b_ml">'[3]Manual labor'!$D$37</definedName>
+    <definedName name="b_lf">'[2]Manual labor'!$D$28</definedName>
+    <definedName name="b_ml">'[2]Manual labor'!$D$37</definedName>
     <definedName name="BARQTR">#REF!</definedName>
     <definedName name="BELGIUM">#REF!</definedName>
     <definedName name="BOTO">!#REF!</definedName>
@@ -91,59 +89,59 @@
     <definedName name="CAMARA">[1]TABLE1a!$P$4</definedName>
     <definedName name="CategoryTitle">#REF!</definedName>
     <definedName name="CLONE">[1]TABLE1a!$P$6</definedName>
-    <definedName name="constant_l">'[3]World Bank Employment Data'!$D$38</definedName>
-    <definedName name="constant_m">'[3]World Bank Employment Data'!$D$49</definedName>
-    <definedName name="COP_max">'[4]Domestic refrigeration'!$B$12</definedName>
+    <definedName name="constant_l">'[2]World Bank Employment Data'!$D$38</definedName>
+    <definedName name="constant_m">'[2]World Bank Employment Data'!$D$49</definedName>
+    <definedName name="COP_max">'[3]Domestic refrigeration'!$B$12</definedName>
     <definedName name="d">#REF!</definedName>
     <definedName name="DASH">!#REF!</definedName>
     <definedName name="Data_col1">!#REF!</definedName>
     <definedName name="DEFLATOR">#REF!</definedName>
-    <definedName name="delta_t">'[3]Manual labor'!$E$2:$BF$2</definedName>
-    <definedName name="deltaE_feed_E_consumed_head">'[3]GH Feed'!$B$57</definedName>
+    <definedName name="delta_t">'[2]Manual labor'!$E$2:$BF$2</definedName>
+    <definedName name="deltaE_feed_E_consumed_head">'[2]GH Feed'!$B$57</definedName>
     <definedName name="deltaE_food">#REF!</definedName>
     <definedName name="dgdsfyh">#REF!</definedName>
     <definedName name="DK">#REF!</definedName>
     <definedName name="DNK_D">#REF!</definedName>
     <definedName name="DOVER">#N/A</definedName>
-    <definedName name="E_consumed_head">'[3]GH Feed'!$B$55</definedName>
+    <definedName name="E_consumed_head">'[2]GH Feed'!$B$55</definedName>
     <definedName name="EBAmount">#REF!</definedName>
-    <definedName name="Ef_feed">'[3]GH Feed'!$E$5:$AU$5</definedName>
-    <definedName name="Ef_food">'[5]5 GB Food'!$R$13:$BH$13</definedName>
+    <definedName name="Ef_feed">'[2]GH Feed'!$E$5:$AU$5</definedName>
+    <definedName name="Ef_food">'[4]5 GB Food'!$R$13:$BH$13</definedName>
     <definedName name="EIRE">#REF!</definedName>
     <definedName name="ENGLISH">#N/A</definedName>
-    <definedName name="Ep_feed">'[3]GH Feed'!$E$4:$AU$4</definedName>
-    <definedName name="Ep_S_feed_2000">'[3]GH Feed'!$Q$74</definedName>
+    <definedName name="Ep_feed">'[2]GH Feed'!$E$4:$AU$4</definedName>
+    <definedName name="Ep_S_feed_2000">'[2]GH Feed'!$Q$74</definedName>
     <definedName name="Ep_tot_cap_2000">#REF!</definedName>
-    <definedName name="eta_charcoal">'[4]Stove efficiencies'!$B$6</definedName>
-    <definedName name="eta_firewood">'[4]Stove efficiencies'!$B$5</definedName>
-    <definedName name="eta_kerosene">'[4]Stove efficiencies'!$B$7</definedName>
-    <definedName name="eta_LPG">'[4]Stove efficiencies'!$B$8</definedName>
-    <definedName name="Eu_feed">'[3]GH Feed'!$E$6:$AU$6</definedName>
-    <definedName name="Eu_ME">'[5]5 GB Food'!$B$48</definedName>
+    <definedName name="eta_charcoal">'[3]Stove efficiencies'!$B$6</definedName>
+    <definedName name="eta_firewood">'[3]Stove efficiencies'!$B$5</definedName>
+    <definedName name="eta_kerosene">'[3]Stove efficiencies'!$B$7</definedName>
+    <definedName name="eta_LPG">'[3]Stove efficiencies'!$B$8</definedName>
+    <definedName name="Eu_feed">'[2]GH Feed'!$E$6:$AU$6</definedName>
+    <definedName name="Eu_ME">'[4]5 GB Food'!$B$48</definedName>
     <definedName name="exchange_rate">!#REF!</definedName>
     <definedName name="fbegyear">#REF!</definedName>
-    <definedName name="fendyear">[6]Year!$B$3</definedName>
+    <definedName name="fendyear">[5]Year!$B$3</definedName>
     <definedName name="fixed77c">#REF!</definedName>
     <definedName name="FL">#REF!</definedName>
     <definedName name="Footnotes">#REF!</definedName>
     <definedName name="FOREIGN">[1]TABLE1a!$P$38:$P$52</definedName>
     <definedName name="FRANCE">#REF!</definedName>
-    <definedName name="FU_subdays">'[3]GH Feed'!$B$49</definedName>
-    <definedName name="FU_workdays">'[3]GH Feed'!$B$48</definedName>
-    <definedName name="fyear">[6]c11!$D$42</definedName>
-    <definedName name="GE_cap_2000">'[5]5 GB Food'!$G$28</definedName>
+    <definedName name="FU_subdays">'[2]GH Feed'!$B$49</definedName>
+    <definedName name="FU_workdays">'[2]GH Feed'!$B$48</definedName>
+    <definedName name="fyear">[5]c11!$D$42</definedName>
+    <definedName name="GE_cap_2000">'[4]5 GB Food'!$G$28</definedName>
     <definedName name="GEOG9703">!#REF!</definedName>
     <definedName name="GERMANY">#REF!</definedName>
-    <definedName name="GraphData">'[7]TIS-INDEX'!$B$13:$Q$44,'[7]TIS-INDEX'!$E$9:$R$9</definedName>
+    <definedName name="GraphData">'[6]TIS-INDEX'!$B$13:$Q$44,'[6]TIS-INDEX'!$E$9:$R$9</definedName>
     <definedName name="GraphTitle">#REF!</definedName>
     <definedName name="ITALY">#REF!</definedName>
-    <definedName name="lf_1984">'[3]Manual labor'!$AC$25</definedName>
+    <definedName name="lf_1984">'[2]Manual labor'!$AC$25</definedName>
     <definedName name="Lon">!#REF!</definedName>
-    <definedName name="ME_cap_2000">'[5]5 GB Food'!$G$27</definedName>
+    <definedName name="ME_cap_2000">'[4]5 GB Food'!$G$27</definedName>
     <definedName name="MIN">!#REF!</definedName>
     <definedName name="mincheck">!#REF!</definedName>
-    <definedName name="ml_1984">'[3]Manual labor'!$AC$34</definedName>
-    <definedName name="N_DA">'[3]GH Feed'!$E$3:$AU$3</definedName>
+    <definedName name="ml_1984">'[2]Manual labor'!$AC$34</definedName>
+    <definedName name="N_DA">'[2]GH Feed'!$E$3:$AU$3</definedName>
     <definedName name="N_ml">#REF!</definedName>
     <definedName name="name">!#REF!</definedName>
     <definedName name="NLS">#REF!</definedName>
@@ -157,7 +155,7 @@
     <definedName name="phi_Feed">#REF!</definedName>
     <definedName name="phi_Food">#REF!</definedName>
     <definedName name="phi_Hydro">#REF!</definedName>
-    <definedName name="phi_MTH.200.C">'[5]3 Heat eta and phi'!$D$10</definedName>
+    <definedName name="phi_MTH.200.C">'[4]3 Heat eta and phi'!$D$10</definedName>
     <definedName name="phi_Natural_gas">#REF!</definedName>
     <definedName name="phi_Oil_and_oil_products">#REF!</definedName>
     <definedName name="phi_Phytomass">#REF!</definedName>
@@ -173,17 +171,17 @@
     <definedName name="qryNonEUBreakdown">#REF!</definedName>
     <definedName name="QUARTER">#REF!</definedName>
     <definedName name="R_">!#REF!</definedName>
-    <definedName name="ratio_asses">'[3]Draught Animals'!$V$46</definedName>
-    <definedName name="ratio_cattle">'[3]Draught Animals'!$Y$46</definedName>
-    <definedName name="ratio_horses">'[3]Draught Animals'!$Z$46</definedName>
+    <definedName name="ratio_asses">'[2]Draught Animals'!$V$46</definedName>
+    <definedName name="ratio_cattle">'[2]Draught Animals'!$Y$46</definedName>
+    <definedName name="ratio_horses">'[2]Draught Animals'!$Z$46</definedName>
     <definedName name="region">!#REF!</definedName>
     <definedName name="S_food">#REF!</definedName>
     <definedName name="S_food_2000">#REF!</definedName>
     <definedName name="S_food_S_food_2000">#REF!</definedName>
     <definedName name="SPAIN">#REF!</definedName>
-    <definedName name="T_0_ref">'[4]Domestic refrigeration'!$B$10</definedName>
-    <definedName name="T_ref">'[4]Domestic refrigeration'!$B$11</definedName>
-    <definedName name="tab">[8]TABLE1a!$U$3:$U$3</definedName>
+    <definedName name="T_0_ref">'[3]Domestic refrigeration'!$B$10</definedName>
+    <definedName name="T_ref">'[3]Domestic refrigeration'!$B$11</definedName>
+    <definedName name="tab">[7]TABLE1a!$U$3:$U$3</definedName>
     <definedName name="TAB4ALL">#N/A</definedName>
     <definedName name="TAB4PV">#N/A</definedName>
     <definedName name="TAB4UT">#N/A</definedName>
@@ -213,7 +211,7 @@
     <definedName name="v">!#REF!</definedName>
     <definedName name="ValueTitle">#REF!</definedName>
     <definedName name="w">#REF!</definedName>
-    <definedName name="w_feed">'[3]GH Feed'!$O$40</definedName>
+    <definedName name="w_feed">'[2]GH Feed'!$O$40</definedName>
     <definedName name="xx">#REF!</definedName>
     <definedName name="Year_Food">#REF!</definedName>
     <definedName name="Yr00">!#REF!</definedName>
@@ -236,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2617" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2567" uniqueCount="129">
   <si>
     <t>Country</t>
   </si>
@@ -577,22 +575,10 @@
     <t>Other oil products</t>
   </si>
   <si>
-    <t>Metric</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
     <t>Refrigerators</t>
   </si>
   <si>
     <t>LTC.-10.C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>[-]</t>
   </si>
   <si>
     <t>Domestic fans</t>
@@ -641,7 +627,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -677,14 +663,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -714,21 +692,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -737,7 +706,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -747,19 +716,6 @@
     <xf numFmtId="10" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1787,24 +1743,6 @@
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="FU Allocations"/>
-      <sheetName val="GHA_Res_Elec"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Manual labor"/>
       <sheetName val="World Bank Employment Data"/>
@@ -2640,7 +2578,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2726,7 +2664,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2942,7 +2880,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3217,7 +3155,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4322,7 +4260,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4636,8 +4574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N166" sqref="N166:BK172"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22182,13 +22120,11 @@
       <c r="H166" t="s">
         <v>80</v>
       </c>
-      <c r="I166" t="str">
-        <f>GHA_Res_Elec!E2</f>
-        <v>Refrigerators</v>
-      </c>
-      <c r="J166" t="str">
-        <f>GHA_Res_Elec!F2</f>
-        <v>LTC.-10.C</v>
+      <c r="I166" t="s">
+        <v>113</v>
+      </c>
+      <c r="J166" t="s">
+        <v>114</v>
       </c>
       <c r="K166" t="s">
         <v>103</v>
@@ -22198,203 +22134,153 @@
       </c>
       <c r="M166" s="4"/>
       <c r="N166" s="8">
-        <f>GHA_Res_Elec!T2</f>
         <v>0.4</v>
       </c>
       <c r="O166" s="8">
-        <f>GHA_Res_Elec!U2</f>
         <v>0.39945979819920435</v>
       </c>
       <c r="P166" s="8">
-        <f>GHA_Res_Elec!V2</f>
         <v>0.39891959639840868</v>
       </c>
       <c r="Q166" s="8">
-        <f>GHA_Res_Elec!W2</f>
         <v>0.39837939459761301</v>
       </c>
       <c r="R166" s="8">
-        <f>GHA_Res_Elec!X2</f>
         <v>0.39783919279681734</v>
       </c>
       <c r="S166" s="8">
-        <f>GHA_Res_Elec!Y2</f>
         <v>0.39729899099602167</v>
       </c>
       <c r="T166" s="8">
-        <f>GHA_Res_Elec!Z2</f>
         <v>0.396758789195226</v>
       </c>
       <c r="U166" s="8">
-        <f>GHA_Res_Elec!AA2</f>
         <v>0.39621858739443033</v>
       </c>
       <c r="V166" s="8">
-        <f>GHA_Res_Elec!AB2</f>
         <v>0.39567838559363466</v>
       </c>
       <c r="W166" s="8">
-        <f>GHA_Res_Elec!AC2</f>
         <v>0.39513818379283899</v>
       </c>
       <c r="X166" s="8">
-        <f>GHA_Res_Elec!AD2</f>
         <v>0.39459798199204332</v>
       </c>
       <c r="Y166" s="8">
-        <f>GHA_Res_Elec!AE2</f>
         <v>0.39405778019124765</v>
       </c>
       <c r="Z166" s="8">
-        <f>GHA_Res_Elec!AF2</f>
         <v>0.39351757839045198</v>
       </c>
       <c r="AA166" s="8">
-        <f>GHA_Res_Elec!AG2</f>
         <v>0.39297737658965631</v>
       </c>
       <c r="AB166" s="8">
-        <f>GHA_Res_Elec!AH2</f>
         <v>0.39243717478886064</v>
       </c>
       <c r="AC166" s="8">
-        <f>GHA_Res_Elec!AI2</f>
         <v>0.39189697298806497</v>
       </c>
       <c r="AD166" s="8">
-        <f>GHA_Res_Elec!AJ2</f>
         <v>0.3913567711872693</v>
       </c>
       <c r="AE166" s="8">
-        <f>GHA_Res_Elec!AK2</f>
         <v>0.39081656938647363</v>
       </c>
       <c r="AF166" s="8">
-        <f>GHA_Res_Elec!AL2</f>
         <v>0.39027636758567796</v>
       </c>
       <c r="AG166" s="8">
-        <f>GHA_Res_Elec!AM2</f>
         <v>0.38973616578488229</v>
       </c>
       <c r="AH166" s="8">
-        <f>GHA_Res_Elec!AN2</f>
         <v>0.38919596398408662</v>
       </c>
       <c r="AI166" s="8">
-        <f>GHA_Res_Elec!AO2</f>
         <v>0.38865576218329095</v>
       </c>
       <c r="AJ166" s="8">
-        <f>GHA_Res_Elec!AP2</f>
         <v>0.38811556038249528</v>
       </c>
       <c r="AK166" s="8">
-        <f>GHA_Res_Elec!AQ2</f>
         <v>0.38757535858169961</v>
       </c>
       <c r="AL166" s="8">
-        <f>GHA_Res_Elec!AR2</f>
         <v>0.38703515678090394</v>
       </c>
       <c r="AM166" s="8">
-        <f>GHA_Res_Elec!AS2</f>
         <v>0.38649495498010827</v>
       </c>
       <c r="AN166" s="8">
-        <f>GHA_Res_Elec!AT2</f>
         <v>0.3859547531793126</v>
       </c>
       <c r="AO166" s="8">
-        <f>GHA_Res_Elec!AU2</f>
         <v>0.38541455137851693</v>
       </c>
       <c r="AP166" s="8">
-        <f>GHA_Res_Elec!AV2</f>
         <v>0.38487434957772126</v>
       </c>
       <c r="AQ166" s="8">
-        <f>GHA_Res_Elec!AW2</f>
         <v>0.38433414777692582</v>
       </c>
       <c r="AR166" s="8">
-        <f>GHA_Res_Elec!AX2</f>
         <v>0.39090073299923322</v>
       </c>
       <c r="AS166" s="8">
-        <f>GHA_Res_Elec!AY2</f>
         <v>0.39746731822154063</v>
       </c>
       <c r="AT166" s="8">
-        <f>GHA_Res_Elec!AZ2</f>
         <v>0.40403390344384804</v>
       </c>
       <c r="AU166" s="8">
-        <f>GHA_Res_Elec!BA2</f>
         <v>0.41060048866615545</v>
       </c>
       <c r="AV166" s="8">
-        <f>GHA_Res_Elec!BB2</f>
         <v>0.41716707388846286</v>
       </c>
       <c r="AW166" s="8">
-        <f>GHA_Res_Elec!BC2</f>
         <v>0.42373365911077027</v>
       </c>
       <c r="AX166" s="8">
-        <f>GHA_Res_Elec!BD2</f>
         <v>0.43030024433307767</v>
       </c>
       <c r="AY166" s="8">
-        <f>GHA_Res_Elec!BE2</f>
         <v>0.43686682955538508</v>
       </c>
       <c r="AZ166" s="8">
-        <f>GHA_Res_Elec!BF2</f>
         <v>0.44343341477769249</v>
       </c>
       <c r="BA166" s="8">
-        <f>GHA_Res_Elec!BG2</f>
         <v>0.45</v>
       </c>
       <c r="BB166" s="8">
-        <f>GHA_Res_Elec!BH2</f>
         <v>0.45581779656677851</v>
       </c>
       <c r="BC166" s="8">
-        <f>GHA_Res_Elec!BI2</f>
         <v>0.46163559313355701</v>
       </c>
       <c r="BD166" s="8">
-        <f>GHA_Res_Elec!BJ2</f>
         <v>0.46745338970033551</v>
       </c>
       <c r="BE166" s="8">
-        <f>GHA_Res_Elec!BK2</f>
         <v>0.47327118626711401</v>
       </c>
       <c r="BF166" s="8">
-        <f>GHA_Res_Elec!BL2</f>
         <v>0.47027118626711401</v>
       </c>
       <c r="BG166" s="8">
-        <f>GHA_Res_Elec!BM2</f>
         <v>0.467271186267114</v>
       </c>
       <c r="BH166" s="8">
-        <f>GHA_Res_Elec!BN2</f>
         <v>0.464271186267114</v>
       </c>
       <c r="BI166" s="8">
-        <f>GHA_Res_Elec!BO2</f>
         <v>0.461271186267114</v>
       </c>
       <c r="BJ166" s="8">
-        <f>GHA_Res_Elec!BP2</f>
         <v>0.45827118626711399</v>
       </c>
       <c r="BK166" s="8">
-        <f>GHA_Res_Elec!BQ2</f>
         <v>0.45827118626711399</v>
       </c>
     </row>
@@ -22423,13 +22309,11 @@
       <c r="H167" t="s">
         <v>80</v>
       </c>
-      <c r="I167" t="str">
-        <f>GHA_Res_Elec!E3</f>
-        <v>Domestic fans</v>
-      </c>
-      <c r="J167" t="str">
-        <f>GHA_Res_Elec!F3</f>
-        <v>KE</v>
+      <c r="I167" t="s">
+        <v>115</v>
+      </c>
+      <c r="J167" t="s">
+        <v>116</v>
       </c>
       <c r="K167" t="s">
         <v>103</v>
@@ -22439,203 +22323,153 @@
       </c>
       <c r="M167" s="4"/>
       <c r="N167" s="8">
-        <f>GHA_Res_Elec!T3</f>
         <v>0</v>
       </c>
       <c r="O167" s="8">
-        <f>GHA_Res_Elec!U3</f>
         <v>1.8301918934060827E-3</v>
       </c>
       <c r="P167" s="8">
-        <f>GHA_Res_Elec!V3</f>
         <v>3.6603837868121655E-3</v>
       </c>
       <c r="Q167" s="8">
-        <f>GHA_Res_Elec!W3</f>
         <v>5.4905756802182482E-3</v>
       </c>
       <c r="R167" s="8">
-        <f>GHA_Res_Elec!X3</f>
         <v>7.3207675736243309E-3</v>
       </c>
       <c r="S167" s="8">
-        <f>GHA_Res_Elec!Y3</f>
         <v>9.1509594670304145E-3</v>
       </c>
       <c r="T167" s="8">
-        <f>GHA_Res_Elec!Z3</f>
         <v>1.0981151360436498E-2</v>
       </c>
       <c r="U167" s="8">
-        <f>GHA_Res_Elec!AA3</f>
         <v>1.2811343253842582E-2</v>
       </c>
       <c r="V167" s="8">
-        <f>GHA_Res_Elec!AB3</f>
         <v>1.4641535147248665E-2</v>
       </c>
       <c r="W167" s="8">
-        <f>GHA_Res_Elec!AC3</f>
         <v>1.6471727040654749E-2</v>
       </c>
       <c r="X167" s="8">
-        <f>GHA_Res_Elec!AD3</f>
         <v>1.8301918934060833E-2</v>
       </c>
       <c r="Y167" s="8">
-        <f>GHA_Res_Elec!AE3</f>
         <v>2.0132110827466916E-2</v>
       </c>
       <c r="Z167" s="8">
-        <f>GHA_Res_Elec!AF3</f>
         <v>2.1962302720873E-2</v>
       </c>
       <c r="AA167" s="8">
-        <f>GHA_Res_Elec!AG3</f>
         <v>2.3792494614279083E-2</v>
       </c>
       <c r="AB167" s="8">
-        <f>GHA_Res_Elec!AH3</f>
         <v>2.5622686507685167E-2</v>
       </c>
       <c r="AC167" s="8">
-        <f>GHA_Res_Elec!AI3</f>
         <v>2.745287840109125E-2</v>
       </c>
       <c r="AD167" s="8">
-        <f>GHA_Res_Elec!AJ3</f>
         <v>2.9283070294497334E-2</v>
       </c>
       <c r="AE167" s="8">
-        <f>GHA_Res_Elec!AK3</f>
         <v>3.1113262187903418E-2</v>
       </c>
       <c r="AF167" s="8">
-        <f>GHA_Res_Elec!AL3</f>
         <v>3.2943454081309498E-2</v>
       </c>
       <c r="AG167" s="8">
-        <f>GHA_Res_Elec!AM3</f>
         <v>3.4773645974715578E-2</v>
       </c>
       <c r="AH167" s="8">
-        <f>GHA_Res_Elec!AN3</f>
         <v>3.6603837868121658E-2</v>
       </c>
       <c r="AI167" s="8">
-        <f>GHA_Res_Elec!AO3</f>
         <v>3.8434029761527738E-2</v>
       </c>
       <c r="AJ167" s="8">
-        <f>GHA_Res_Elec!AP3</f>
         <v>4.0264221654933818E-2</v>
       </c>
       <c r="AK167" s="8">
-        <f>GHA_Res_Elec!AQ3</f>
         <v>4.2094413548339898E-2</v>
       </c>
       <c r="AL167" s="8">
-        <f>GHA_Res_Elec!AR3</f>
         <v>4.3924605441745979E-2</v>
       </c>
       <c r="AM167" s="8">
-        <f>GHA_Res_Elec!AS3</f>
         <v>4.5754797335152059E-2</v>
       </c>
       <c r="AN167" s="8">
-        <f>GHA_Res_Elec!AT3</f>
         <v>4.7584989228558139E-2</v>
       </c>
       <c r="AO167" s="8">
-        <f>GHA_Res_Elec!AU3</f>
         <v>4.9415181121964219E-2</v>
       </c>
       <c r="AP167" s="8">
-        <f>GHA_Res_Elec!AV3</f>
         <v>5.1245373015370299E-2</v>
       </c>
       <c r="AQ167" s="8">
-        <f>GHA_Res_Elec!AW3</f>
         <v>5.30755649087764E-2</v>
       </c>
       <c r="AR167" s="8">
-        <f>GHA_Res_Elec!AX3</f>
         <v>5.2749140493370456E-2</v>
       </c>
       <c r="AS167" s="8">
-        <f>GHA_Res_Elec!AY3</f>
         <v>5.2422716077964518E-2</v>
       </c>
       <c r="AT167" s="8">
-        <f>GHA_Res_Elec!AZ3</f>
         <v>5.209629166255858E-2</v>
       </c>
       <c r="AU167" s="8">
-        <f>GHA_Res_Elec!BA3</f>
         <v>5.1769867247152643E-2</v>
       </c>
       <c r="AV167" s="8">
-        <f>GHA_Res_Elec!BB3</f>
         <v>5.1443442831746705E-2</v>
       </c>
       <c r="AW167" s="8">
-        <f>GHA_Res_Elec!BC3</f>
         <v>5.1117018416340768E-2</v>
       </c>
       <c r="AX167" s="8">
-        <f>GHA_Res_Elec!BD3</f>
         <v>5.079059400093483E-2</v>
       </c>
       <c r="AY167" s="8">
-        <f>GHA_Res_Elec!BE3</f>
         <v>5.0464169585528892E-2</v>
       </c>
       <c r="AZ167" s="8">
-        <f>GHA_Res_Elec!BF3</f>
         <v>5.0137745170122955E-2</v>
       </c>
       <c r="BA167" s="8">
-        <f>GHA_Res_Elec!BG3</f>
         <v>4.981132075471699E-2</v>
       </c>
       <c r="BB167" s="8">
-        <f>GHA_Res_Elec!BH3</f>
         <v>5.1768685097050404E-2</v>
       </c>
       <c r="BC167" s="8">
-        <f>GHA_Res_Elec!BI3</f>
         <v>5.3726049439383819E-2</v>
       </c>
       <c r="BD167" s="8">
-        <f>GHA_Res_Elec!BJ3</f>
         <v>5.5683413781717234E-2</v>
       </c>
       <c r="BE167" s="8">
-        <f>GHA_Res_Elec!BK3</f>
         <v>5.7640778124050641E-2</v>
       </c>
       <c r="BF167" s="8">
-        <f>GHA_Res_Elec!BL3</f>
         <v>5.8619460295217349E-2</v>
       </c>
       <c r="BG167" s="8">
-        <f>GHA_Res_Elec!BM3</f>
         <v>5.9598142466384056E-2</v>
       </c>
       <c r="BH167" s="8">
-        <f>GHA_Res_Elec!BN3</f>
         <v>6.0576824637550764E-2</v>
       </c>
       <c r="BI167" s="8">
-        <f>GHA_Res_Elec!BO3</f>
         <v>6.1555506808717471E-2</v>
       </c>
       <c r="BJ167" s="8">
-        <f>GHA_Res_Elec!BP3</f>
         <v>6.2534188979884178E-2</v>
       </c>
       <c r="BK167" s="8">
-        <f>GHA_Res_Elec!BQ3</f>
         <v>6.2534188979884178E-2</v>
       </c>
     </row>
@@ -22664,13 +22498,11 @@
       <c r="H168" t="s">
         <v>80</v>
       </c>
-      <c r="I168" t="str">
-        <f>GHA_Res_Elec!E4</f>
-        <v>Room air conditioners</v>
-      </c>
-      <c r="J168" t="str">
-        <f>GHA_Res_Elec!F4</f>
-        <v>LTC.20.C</v>
+      <c r="I168" t="s">
+        <v>117</v>
+      </c>
+      <c r="J168" t="s">
+        <v>118</v>
       </c>
       <c r="K168" t="s">
         <v>103</v>
@@ -22680,203 +22512,153 @@
       </c>
       <c r="M168" s="4"/>
       <c r="N168" s="8">
-        <f>GHA_Res_Elec!T4</f>
         <v>0</v>
       </c>
       <c r="O168" s="8">
-        <f>GHA_Res_Elec!U4</f>
         <v>4.5754797335152068E-4</v>
       </c>
       <c r="P168" s="8">
-        <f>GHA_Res_Elec!V4</f>
         <v>9.1509594670304137E-4</v>
       </c>
       <c r="Q168" s="8">
-        <f>GHA_Res_Elec!W4</f>
         <v>1.372643920054562E-3</v>
       </c>
       <c r="R168" s="8">
-        <f>GHA_Res_Elec!X4</f>
         <v>1.8301918934060827E-3</v>
       </c>
       <c r="S168" s="8">
-        <f>GHA_Res_Elec!Y4</f>
         <v>2.2877398667576036E-3</v>
       </c>
       <c r="T168" s="8">
-        <f>GHA_Res_Elec!Z4</f>
         <v>2.7452878401091245E-3</v>
       </c>
       <c r="U168" s="8">
-        <f>GHA_Res_Elec!AA4</f>
         <v>3.2028358134606454E-3</v>
       </c>
       <c r="V168" s="8">
-        <f>GHA_Res_Elec!AB4</f>
         <v>3.6603837868121663E-3</v>
       </c>
       <c r="W168" s="8">
-        <f>GHA_Res_Elec!AC4</f>
         <v>4.1179317601636872E-3</v>
       </c>
       <c r="X168" s="8">
-        <f>GHA_Res_Elec!AD4</f>
         <v>4.5754797335152081E-3</v>
       </c>
       <c r="Y168" s="8">
-        <f>GHA_Res_Elec!AE4</f>
         <v>5.033027706866729E-3</v>
       </c>
       <c r="Z168" s="8">
-        <f>GHA_Res_Elec!AF4</f>
         <v>5.4905756802182499E-3</v>
       </c>
       <c r="AA168" s="8">
-        <f>GHA_Res_Elec!AG4</f>
         <v>5.9481236535697708E-3</v>
       </c>
       <c r="AB168" s="8">
-        <f>GHA_Res_Elec!AH4</f>
         <v>6.4056716269212917E-3</v>
       </c>
       <c r="AC168" s="8">
-        <f>GHA_Res_Elec!AI4</f>
         <v>6.8632196002728126E-3</v>
       </c>
       <c r="AD168" s="8">
-        <f>GHA_Res_Elec!AJ4</f>
         <v>7.3207675736243335E-3</v>
       </c>
       <c r="AE168" s="8">
-        <f>GHA_Res_Elec!AK4</f>
         <v>7.7783155469758544E-3</v>
       </c>
       <c r="AF168" s="8">
-        <f>GHA_Res_Elec!AL4</f>
         <v>8.2358635203273745E-3</v>
       </c>
       <c r="AG168" s="8">
-        <f>GHA_Res_Elec!AM4</f>
         <v>8.6934114936788945E-3</v>
       </c>
       <c r="AH168" s="8">
-        <f>GHA_Res_Elec!AN4</f>
         <v>9.1509594670304145E-3</v>
       </c>
       <c r="AI168" s="8">
-        <f>GHA_Res_Elec!AO4</f>
         <v>9.6085074403819346E-3</v>
       </c>
       <c r="AJ168" s="8">
-        <f>GHA_Res_Elec!AP4</f>
         <v>1.0066055413733455E-2</v>
       </c>
       <c r="AK168" s="8">
-        <f>GHA_Res_Elec!AQ4</f>
         <v>1.0523603387084975E-2</v>
       </c>
       <c r="AL168" s="8">
-        <f>GHA_Res_Elec!AR4</f>
         <v>1.0981151360436495E-2</v>
       </c>
       <c r="AM168" s="8">
-        <f>GHA_Res_Elec!AS4</f>
         <v>1.1438699333788015E-2</v>
       </c>
       <c r="AN168" s="8">
-        <f>GHA_Res_Elec!AT4</f>
         <v>1.1896247307139535E-2</v>
       </c>
       <c r="AO168" s="8">
-        <f>GHA_Res_Elec!AU4</f>
         <v>1.2353795280491055E-2</v>
       </c>
       <c r="AP168" s="8">
-        <f>GHA_Res_Elec!AV4</f>
         <v>1.2811343253842575E-2</v>
       </c>
       <c r="AQ168" s="8">
-        <f>GHA_Res_Elec!AW4</f>
         <v>1.32688912271941E-2</v>
       </c>
       <c r="AR168" s="8">
-        <f>GHA_Res_Elec!AX4</f>
         <v>1.5262756821455822E-2</v>
       </c>
       <c r="AS168" s="8">
-        <f>GHA_Res_Elec!AY4</f>
         <v>1.7256622415717546E-2</v>
       </c>
       <c r="AT168" s="8">
-        <f>GHA_Res_Elec!AZ4</f>
         <v>1.9250488009979271E-2</v>
       </c>
       <c r="AU168" s="8">
-        <f>GHA_Res_Elec!BA4</f>
         <v>2.1244353604240995E-2</v>
       </c>
       <c r="AV168" s="8">
-        <f>GHA_Res_Elec!BB4</f>
         <v>2.3238219198502719E-2</v>
       </c>
       <c r="AW168" s="8">
-        <f>GHA_Res_Elec!BC4</f>
         <v>2.5232084792764443E-2</v>
       </c>
       <c r="AX168" s="8">
-        <f>GHA_Res_Elec!BD4</f>
         <v>2.7225950387026167E-2</v>
       </c>
       <c r="AY168" s="8">
-        <f>GHA_Res_Elec!BE4</f>
         <v>2.9219815981287891E-2</v>
       </c>
       <c r="AZ168" s="8">
-        <f>GHA_Res_Elec!BF4</f>
         <v>3.1213681575549615E-2</v>
       </c>
       <c r="BA168" s="8">
-        <f>GHA_Res_Elec!BG4</f>
         <v>3.3207547169811329E-2</v>
       </c>
       <c r="BB168" s="8">
-        <f>GHA_Res_Elec!BH4</f>
         <v>3.9315854908371153E-2</v>
       </c>
       <c r="BC168" s="8">
-        <f>GHA_Res_Elec!BI4</f>
         <v>4.5424162646930985E-2</v>
       </c>
       <c r="BD168" s="8">
-        <f>GHA_Res_Elec!BJ4</f>
         <v>5.1532470385490817E-2</v>
       </c>
       <c r="BE168" s="8">
-        <f>GHA_Res_Elec!BK4</f>
         <v>5.7640778124050641E-2</v>
       </c>
       <c r="BF168" s="8">
-        <f>GHA_Res_Elec!BL4</f>
         <v>6.0694931993330557E-2</v>
       </c>
       <c r="BG168" s="8">
-        <f>GHA_Res_Elec!BM4</f>
         <v>6.3749085862610466E-2</v>
       </c>
       <c r="BH168" s="8">
-        <f>GHA_Res_Elec!BN4</f>
         <v>6.6803239731890382E-2</v>
       </c>
       <c r="BI168" s="8">
-        <f>GHA_Res_Elec!BO4</f>
         <v>6.9857393601170298E-2</v>
       </c>
       <c r="BJ168" s="8">
-        <f>GHA_Res_Elec!BP4</f>
         <v>7.2911547470450214E-2</v>
       </c>
       <c r="BK168" s="8">
-        <f>GHA_Res_Elec!BQ4</f>
         <v>7.2911547470450214E-2</v>
       </c>
     </row>
@@ -22905,13 +22687,11 @@
       <c r="H169" t="s">
         <v>80</v>
       </c>
-      <c r="I169" t="str">
-        <f>GHA_Res_Elec!E5</f>
-        <v>Domestic electric lamps</v>
-      </c>
-      <c r="J169" t="str">
-        <f>GHA_Res_Elec!F5</f>
-        <v>L</v>
+      <c r="I169" t="s">
+        <v>119</v>
+      </c>
+      <c r="J169" t="s">
+        <v>120</v>
       </c>
       <c r="K169" t="s">
         <v>103</v>
@@ -22921,203 +22701,153 @@
       </c>
       <c r="M169" s="4"/>
       <c r="N169" s="8">
-        <f>GHA_Res_Elec!T5</f>
         <v>0.4</v>
       </c>
       <c r="O169" s="8">
-        <f>GHA_Res_Elec!U5</f>
         <v>0.39765943302180307</v>
       </c>
       <c r="P169" s="8">
-        <f>GHA_Res_Elec!V5</f>
         <v>0.39531886604360611</v>
       </c>
       <c r="Q169" s="8">
-        <f>GHA_Res_Elec!W5</f>
         <v>0.39297829906540915</v>
       </c>
       <c r="R169" s="8">
-        <f>GHA_Res_Elec!X5</f>
         <v>0.3906377320872122</v>
       </c>
       <c r="S169" s="8">
-        <f>GHA_Res_Elec!Y5</f>
         <v>0.38829716510901524</v>
       </c>
       <c r="T169" s="8">
-        <f>GHA_Res_Elec!Z5</f>
         <v>0.38595659813081828</v>
       </c>
       <c r="U169" s="8">
-        <f>GHA_Res_Elec!AA5</f>
         <v>0.38361603115262133</v>
       </c>
       <c r="V169" s="8">
-        <f>GHA_Res_Elec!AB5</f>
         <v>0.38127546417442437</v>
       </c>
       <c r="W169" s="8">
-        <f>GHA_Res_Elec!AC5</f>
         <v>0.37893489719622742</v>
       </c>
       <c r="X169" s="8">
-        <f>GHA_Res_Elec!AD5</f>
         <v>0.37659433021803046</v>
       </c>
       <c r="Y169" s="8">
-        <f>GHA_Res_Elec!AE5</f>
         <v>0.3742537632398335</v>
       </c>
       <c r="Z169" s="8">
-        <f>GHA_Res_Elec!AF5</f>
         <v>0.37191319626163655</v>
       </c>
       <c r="AA169" s="8">
-        <f>GHA_Res_Elec!AG5</f>
         <v>0.36957262928343959</v>
       </c>
       <c r="AB169" s="8">
-        <f>GHA_Res_Elec!AH5</f>
         <v>0.36723206230524263</v>
       </c>
       <c r="AC169" s="8">
-        <f>GHA_Res_Elec!AI5</f>
         <v>0.36489149532704568</v>
       </c>
       <c r="AD169" s="8">
-        <f>GHA_Res_Elec!AJ5</f>
         <v>0.36255092834884872</v>
       </c>
       <c r="AE169" s="8">
-        <f>GHA_Res_Elec!AK5</f>
         <v>0.36021036137065177</v>
       </c>
       <c r="AF169" s="8">
-        <f>GHA_Res_Elec!AL5</f>
         <v>0.35786979439245481</v>
       </c>
       <c r="AG169" s="8">
-        <f>GHA_Res_Elec!AM5</f>
         <v>0.35552922741425785</v>
       </c>
       <c r="AH169" s="8">
-        <f>GHA_Res_Elec!AN5</f>
         <v>0.3531886604360609</v>
       </c>
       <c r="AI169" s="8">
-        <f>GHA_Res_Elec!AO5</f>
         <v>0.35084809345786394</v>
       </c>
       <c r="AJ169" s="8">
-        <f>GHA_Res_Elec!AP5</f>
         <v>0.34850752647966698</v>
       </c>
       <c r="AK169" s="8">
-        <f>GHA_Res_Elec!AQ5</f>
         <v>0.34616695950147003</v>
       </c>
       <c r="AL169" s="8">
-        <f>GHA_Res_Elec!AR5</f>
         <v>0.34382639252327307</v>
       </c>
       <c r="AM169" s="8">
-        <f>GHA_Res_Elec!AS5</f>
         <v>0.34148582554507612</v>
       </c>
       <c r="AN169" s="8">
-        <f>GHA_Res_Elec!AT5</f>
         <v>0.33914525856687916</v>
       </c>
       <c r="AO169" s="8">
-        <f>GHA_Res_Elec!AU5</f>
         <v>0.3368046915886822</v>
       </c>
       <c r="AP169" s="8">
-        <f>GHA_Res_Elec!AV5</f>
         <v>0.33446412461048525</v>
       </c>
       <c r="AQ169" s="8">
-        <f>GHA_Res_Elec!AW5</f>
         <v>0.33212355763228774</v>
       </c>
       <c r="AR169" s="8">
-        <f>GHA_Res_Elec!AX5</f>
         <v>0.31891120186905897</v>
       </c>
       <c r="AS169" s="8">
-        <f>GHA_Res_Elec!AY5</f>
         <v>0.3056988461058302</v>
       </c>
       <c r="AT169" s="8">
-        <f>GHA_Res_Elec!AZ5</f>
         <v>0.29248649034260144</v>
       </c>
       <c r="AU169" s="8">
-        <f>GHA_Res_Elec!BA5</f>
         <v>0.27927413457937267</v>
       </c>
       <c r="AV169" s="8">
-        <f>GHA_Res_Elec!BB5</f>
         <v>0.2660617788161439</v>
       </c>
       <c r="AW169" s="8">
-        <f>GHA_Res_Elec!BC5</f>
         <v>0.25284942305291513</v>
       </c>
       <c r="AX169" s="8">
-        <f>GHA_Res_Elec!BD5</f>
         <v>0.23963706728968637</v>
       </c>
       <c r="AY169" s="8">
-        <f>GHA_Res_Elec!BE5</f>
         <v>0.2264247115264576</v>
       </c>
       <c r="AZ169" s="8">
-        <f>GHA_Res_Elec!BF5</f>
         <v>0.21321235576322883</v>
       </c>
       <c r="BA169" s="8">
-        <f>GHA_Res_Elec!BG5</f>
         <v>0.2</v>
       </c>
       <c r="BB169" s="8">
-        <f>GHA_Res_Elec!BH5</f>
         <v>0.19125</v>
       </c>
       <c r="BC169" s="8">
-        <f>GHA_Res_Elec!BI5</f>
         <v>0.1825</v>
       </c>
       <c r="BD169" s="8">
-        <f>GHA_Res_Elec!BJ5</f>
         <v>0.17374999999999999</v>
       </c>
       <c r="BE169" s="8">
-        <f>GHA_Res_Elec!BK5</f>
         <v>0.16500000000000001</v>
       </c>
       <c r="BF169" s="8">
-        <f>GHA_Res_Elec!BL5</f>
         <v>0.16062500000000002</v>
       </c>
       <c r="BG169" s="8">
-        <f>GHA_Res_Elec!BM5</f>
         <v>0.15625000000000003</v>
       </c>
       <c r="BH169" s="8">
-        <f>GHA_Res_Elec!BN5</f>
         <v>0.15187500000000004</v>
       </c>
       <c r="BI169" s="8">
-        <f>GHA_Res_Elec!BO5</f>
         <v>0.14750000000000005</v>
       </c>
       <c r="BJ169" s="8">
-        <f>GHA_Res_Elec!BP5</f>
         <v>0.14312500000000006</v>
       </c>
       <c r="BK169" s="8">
-        <f>GHA_Res_Elec!BQ5</f>
         <v>0.14312500000000006</v>
       </c>
     </row>
@@ -23146,219 +22876,167 @@
       <c r="H170" t="s">
         <v>80</v>
       </c>
-      <c r="I170" t="str">
-        <f>GHA_Res_Elec!E6</f>
-        <v>Televisions</v>
-      </c>
-      <c r="J170" t="str">
-        <f>GHA_Res_Elec!F6</f>
-        <v>L</v>
+      <c r="I170" t="s">
+        <v>121</v>
+      </c>
+      <c r="J170" t="s">
+        <v>120</v>
       </c>
       <c r="K170" t="s">
         <v>103</v>
       </c>
       <c r="L170" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M170" s="4"/>
       <c r="N170" s="8">
-        <f>GHA_Res_Elec!T6</f>
         <v>0.15</v>
       </c>
       <c r="O170" s="8">
-        <f>GHA_Res_Elec!U6</f>
         <v>0.14835974586407996</v>
       </c>
       <c r="P170" s="8">
-        <f>GHA_Res_Elec!V6</f>
         <v>0.14671949172815993</v>
       </c>
       <c r="Q170" s="8">
-        <f>GHA_Res_Elec!W6</f>
         <v>0.1450792375922399</v>
       </c>
       <c r="R170" s="8">
-        <f>GHA_Res_Elec!X6</f>
         <v>0.14343898345631986</v>
       </c>
       <c r="S170" s="8">
-        <f>GHA_Res_Elec!Y6</f>
         <v>0.14179872932039983</v>
       </c>
       <c r="T170" s="8">
-        <f>GHA_Res_Elec!Z6</f>
         <v>0.1401584751844798</v>
       </c>
       <c r="U170" s="8">
-        <f>GHA_Res_Elec!AA6</f>
         <v>0.13851822104855976</v>
       </c>
       <c r="V170" s="8">
-        <f>GHA_Res_Elec!AB6</f>
         <v>0.13687796691263973</v>
       </c>
       <c r="W170" s="8">
-        <f>GHA_Res_Elec!AC6</f>
         <v>0.1352377127767197</v>
       </c>
       <c r="X170" s="8">
-        <f>GHA_Res_Elec!AD6</f>
         <v>0.13359745864079967</v>
       </c>
       <c r="Y170" s="8">
-        <f>GHA_Res_Elec!AE6</f>
         <v>0.13195720450487963</v>
       </c>
       <c r="Z170" s="8">
-        <f>GHA_Res_Elec!AF6</f>
         <v>0.1303169503689596</v>
       </c>
       <c r="AA170" s="8">
-        <f>GHA_Res_Elec!AG6</f>
         <v>0.12867669623303957</v>
       </c>
       <c r="AB170" s="8">
-        <f>GHA_Res_Elec!AH6</f>
         <v>0.12703644209711953</v>
       </c>
       <c r="AC170" s="8">
-        <f>GHA_Res_Elec!AI6</f>
         <v>0.1253961879611995</v>
       </c>
       <c r="AD170" s="8">
-        <f>GHA_Res_Elec!AJ6</f>
         <v>0.12375593382527947</v>
       </c>
       <c r="AE170" s="8">
-        <f>GHA_Res_Elec!AK6</f>
         <v>0.12211567968935944</v>
       </c>
       <c r="AF170" s="8">
-        <f>GHA_Res_Elec!AL6</f>
         <v>0.1204754255534394</v>
       </c>
       <c r="AG170" s="8">
-        <f>GHA_Res_Elec!AM6</f>
         <v>0.11883517141751937</v>
       </c>
       <c r="AH170" s="8">
-        <f>GHA_Res_Elec!AN6</f>
         <v>0.11719491728159934</v>
       </c>
       <c r="AI170" s="8">
-        <f>GHA_Res_Elec!AO6</f>
         <v>0.1155546631456793</v>
       </c>
       <c r="AJ170" s="8">
-        <f>GHA_Res_Elec!AP6</f>
         <v>0.11391440900975927</v>
       </c>
       <c r="AK170" s="8">
-        <f>GHA_Res_Elec!AQ6</f>
         <v>0.11227415487383924</v>
       </c>
       <c r="AL170" s="8">
-        <f>GHA_Res_Elec!AR6</f>
         <v>0.11063390073791921</v>
       </c>
       <c r="AM170" s="8">
-        <f>GHA_Res_Elec!AS6</f>
         <v>0.10899364660199917</v>
       </c>
       <c r="AN170" s="8">
-        <f>GHA_Res_Elec!AT6</f>
         <v>0.10735339246607914</v>
       </c>
       <c r="AO170" s="8">
-        <f>GHA_Res_Elec!AU6</f>
         <v>0.10571313833015911</v>
       </c>
       <c r="AP170" s="8">
-        <f>GHA_Res_Elec!AV6</f>
         <v>0.10407288419423907</v>
       </c>
       <c r="AQ170" s="8">
-        <f>GHA_Res_Elec!AW6</f>
         <v>0.10243263005831894</v>
       </c>
       <c r="AR170" s="8">
-        <f>GHA_Res_Elec!AX6</f>
         <v>0.10418936705248705</v>
       </c>
       <c r="AS170" s="8">
-        <f>GHA_Res_Elec!AY6</f>
         <v>0.10594610404665515</v>
       </c>
       <c r="AT170" s="8">
-        <f>GHA_Res_Elec!AZ6</f>
         <v>0.10770284104082326</v>
       </c>
       <c r="AU170" s="8">
-        <f>GHA_Res_Elec!BA6</f>
         <v>0.10945957803499136</v>
       </c>
       <c r="AV170" s="8">
-        <f>GHA_Res_Elec!BB6</f>
         <v>0.11121631502915946</v>
       </c>
       <c r="AW170" s="8">
-        <f>GHA_Res_Elec!BC6</f>
         <v>0.11297305202332757</v>
       </c>
       <c r="AX170" s="8">
-        <f>GHA_Res_Elec!BD6</f>
         <v>0.11472978901749567</v>
       </c>
       <c r="AY170" s="8">
-        <f>GHA_Res_Elec!BE6</f>
         <v>0.11648652601166377</v>
       </c>
       <c r="AZ170" s="8">
-        <f>GHA_Res_Elec!BF6</f>
         <v>0.11824326300583188</v>
       </c>
       <c r="BA170" s="8">
-        <f>GHA_Res_Elec!BG6</f>
         <v>0.12</v>
       </c>
       <c r="BB170" s="8">
-        <f>GHA_Res_Elec!BH6</f>
         <v>0.1242142810817822</v>
       </c>
       <c r="BC170" s="8">
-        <f>GHA_Res_Elec!BI6</f>
         <v>0.12842856216356441</v>
       </c>
       <c r="BD170" s="8">
-        <f>GHA_Res_Elec!BJ6</f>
         <v>0.13264284324534661</v>
       </c>
       <c r="BE170" s="8">
-        <f>GHA_Res_Elec!BK6</f>
         <v>0.13685712432712885</v>
       </c>
       <c r="BF170" s="8">
-        <f>GHA_Res_Elec!BL6</f>
         <v>0.13896426486801997</v>
       </c>
       <c r="BG170" s="8">
-        <f>GHA_Res_Elec!BM6</f>
         <v>0.14107140540891108</v>
       </c>
       <c r="BH170" s="8">
-        <f>GHA_Res_Elec!BN6</f>
         <v>0.1431785459498022</v>
       </c>
       <c r="BI170" s="8">
-        <f>GHA_Res_Elec!BO6</f>
         <v>0.14528568649069332</v>
       </c>
       <c r="BJ170" s="8">
-        <f>GHA_Res_Elec!BP6</f>
         <v>0.14739282703158443</v>
       </c>
       <c r="BK170" s="8">
-        <f>GHA_Res_Elec!BQ6</f>
         <v>0.14739282703158443</v>
       </c>
     </row>
@@ -23387,219 +23065,167 @@
       <c r="H171" t="s">
         <v>80</v>
       </c>
-      <c r="I171" t="str">
-        <f>GHA_Res_Elec!E7</f>
-        <v>Computers</v>
-      </c>
-      <c r="J171" t="str">
-        <f>GHA_Res_Elec!F7</f>
-        <v>IP</v>
+      <c r="I171" t="s">
+        <v>122</v>
+      </c>
+      <c r="J171" t="s">
+        <v>123</v>
       </c>
       <c r="K171" t="s">
         <v>103</v>
       </c>
       <c r="L171" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M171" s="4"/>
       <c r="N171" s="8">
-        <f>GHA_Res_Elec!T7</f>
         <v>0.05</v>
       </c>
       <c r="O171" s="8">
-        <f>GHA_Res_Elec!U7</f>
         <v>5.0630635173754462E-2</v>
       </c>
       <c r="P171" s="8">
-        <f>GHA_Res_Elec!V7</f>
         <v>5.1261270347508922E-2</v>
       </c>
       <c r="Q171" s="8">
-        <f>GHA_Res_Elec!W7</f>
         <v>5.1891905521263382E-2</v>
       </c>
       <c r="R171" s="8">
-        <f>GHA_Res_Elec!X7</f>
         <v>5.2522540695017841E-2</v>
       </c>
       <c r="S171" s="8">
-        <f>GHA_Res_Elec!Y7</f>
         <v>5.3153175868772301E-2</v>
       </c>
       <c r="T171" s="8">
-        <f>GHA_Res_Elec!Z7</f>
         <v>5.3783811042526761E-2</v>
       </c>
       <c r="U171" s="8">
-        <f>GHA_Res_Elec!AA7</f>
         <v>5.441444621628122E-2</v>
       </c>
       <c r="V171" s="8">
-        <f>GHA_Res_Elec!AB7</f>
         <v>5.504508139003568E-2</v>
       </c>
       <c r="W171" s="8">
-        <f>GHA_Res_Elec!AC7</f>
         <v>5.567571656379014E-2</v>
       </c>
       <c r="X171" s="8">
-        <f>GHA_Res_Elec!AD7</f>
         <v>5.6306351737544599E-2</v>
       </c>
       <c r="Y171" s="8">
-        <f>GHA_Res_Elec!AE7</f>
         <v>5.6936986911299059E-2</v>
       </c>
       <c r="Z171" s="8">
-        <f>GHA_Res_Elec!AF7</f>
         <v>5.7567622085053519E-2</v>
       </c>
       <c r="AA171" s="8">
-        <f>GHA_Res_Elec!AG7</f>
         <v>5.8198257258807978E-2</v>
       </c>
       <c r="AB171" s="8">
-        <f>GHA_Res_Elec!AH7</f>
         <v>5.8828892432562438E-2</v>
       </c>
       <c r="AC171" s="8">
-        <f>GHA_Res_Elec!AI7</f>
         <v>5.9459527606316898E-2</v>
       </c>
       <c r="AD171" s="8">
-        <f>GHA_Res_Elec!AJ7</f>
         <v>6.0090162780071357E-2</v>
       </c>
       <c r="AE171" s="8">
-        <f>GHA_Res_Elec!AK7</f>
         <v>6.0720797953825817E-2</v>
       </c>
       <c r="AF171" s="8">
-        <f>GHA_Res_Elec!AL7</f>
         <v>6.1351433127580277E-2</v>
       </c>
       <c r="AG171" s="8">
-        <f>GHA_Res_Elec!AM7</f>
         <v>6.1982068301334736E-2</v>
       </c>
       <c r="AH171" s="8">
-        <f>GHA_Res_Elec!AN7</f>
         <v>6.2612703475089196E-2</v>
       </c>
       <c r="AI171" s="8">
-        <f>GHA_Res_Elec!AO7</f>
         <v>6.3243338648843656E-2</v>
       </c>
       <c r="AJ171" s="8">
-        <f>GHA_Res_Elec!AP7</f>
         <v>6.3873973822598115E-2</v>
       </c>
       <c r="AK171" s="8">
-        <f>GHA_Res_Elec!AQ7</f>
         <v>6.4504608996352575E-2</v>
       </c>
       <c r="AL171" s="8">
-        <f>GHA_Res_Elec!AR7</f>
         <v>6.5135244170107034E-2</v>
       </c>
       <c r="AM171" s="8">
-        <f>GHA_Res_Elec!AS7</f>
         <v>6.5765879343861494E-2</v>
       </c>
       <c r="AN171" s="8">
-        <f>GHA_Res_Elec!AT7</f>
         <v>6.6396514517615954E-2</v>
       </c>
       <c r="AO171" s="8">
-        <f>GHA_Res_Elec!AU7</f>
         <v>6.7027149691370413E-2</v>
       </c>
       <c r="AP171" s="8">
-        <f>GHA_Res_Elec!AV7</f>
         <v>6.7657784865124873E-2</v>
       </c>
       <c r="AQ171" s="8">
-        <f>GHA_Res_Elec!AW7</f>
         <v>6.8288420038879305E-2</v>
       </c>
       <c r="AR171" s="8">
-        <f>GHA_Res_Elec!AX7</f>
         <v>6.8459578034991378E-2</v>
       </c>
       <c r="AS171" s="8">
-        <f>GHA_Res_Elec!AY7</f>
         <v>6.8630736031103451E-2</v>
       </c>
       <c r="AT171" s="8">
-        <f>GHA_Res_Elec!AZ7</f>
         <v>6.8801894027215524E-2</v>
       </c>
       <c r="AU171" s="8">
-        <f>GHA_Res_Elec!BA7</f>
         <v>6.8973052023327597E-2</v>
       </c>
       <c r="AV171" s="8">
-        <f>GHA_Res_Elec!BB7</f>
         <v>6.914421001943967E-2</v>
       </c>
       <c r="AW171" s="8">
-        <f>GHA_Res_Elec!BC7</f>
         <v>6.9315368015551743E-2</v>
       </c>
       <c r="AX171" s="8">
-        <f>GHA_Res_Elec!BD7</f>
         <v>6.9486526011663816E-2</v>
       </c>
       <c r="AY171" s="8">
-        <f>GHA_Res_Elec!BE7</f>
         <v>6.9657684007775889E-2</v>
       </c>
       <c r="AZ171" s="8">
-        <f>GHA_Res_Elec!BF7</f>
         <v>6.9828842003887961E-2</v>
       </c>
       <c r="BA171" s="8">
-        <f>GHA_Res_Elec!BG7</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="BB171" s="8">
-        <f>GHA_Res_Elec!BH7</f>
         <v>6.9607140540891108E-2</v>
       </c>
       <c r="BC171" s="8">
-        <f>GHA_Res_Elec!BI7</f>
         <v>6.9214281081782209E-2</v>
       </c>
       <c r="BD171" s="8">
-        <f>GHA_Res_Elec!BJ7</f>
         <v>6.8821421622673309E-2</v>
       </c>
       <c r="BE171" s="8">
-        <f>GHA_Res_Elec!BK7</f>
         <v>6.8428562163564424E-2</v>
       </c>
       <c r="BF171" s="8">
-        <f>GHA_Res_Elec!BL7</f>
         <v>6.8232132434009982E-2</v>
       </c>
       <c r="BG171" s="8">
-        <f>GHA_Res_Elec!BM7</f>
         <v>6.8035702704455539E-2</v>
       </c>
       <c r="BH171" s="8">
-        <f>GHA_Res_Elec!BN7</f>
         <v>6.7839272974901096E-2</v>
       </c>
       <c r="BI171" s="8">
-        <f>GHA_Res_Elec!BO7</f>
         <v>6.7642843245346654E-2</v>
       </c>
       <c r="BJ171" s="8">
-        <f>GHA_Res_Elec!BP7</f>
         <v>6.7446413515792211E-2</v>
       </c>
       <c r="BK171" s="8">
-        <f>GHA_Res_Elec!BQ7</f>
         <v>6.7446413515792211E-2</v>
       </c>
     </row>
@@ -23628,219 +23254,167 @@
       <c r="H172" t="s">
         <v>80</v>
       </c>
-      <c r="I172" t="str">
-        <f>GHA_Res_Elec!E8</f>
-        <v>Domestic appliances</v>
-      </c>
-      <c r="J172" t="str">
-        <f>GHA_Res_Elec!F8</f>
-        <v>MD</v>
+      <c r="I172" t="s">
+        <v>124</v>
+      </c>
+      <c r="J172" t="s">
+        <v>125</v>
       </c>
       <c r="K172" t="s">
         <v>103</v>
       </c>
       <c r="L172" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M172" s="4"/>
       <c r="N172" s="8">
-        <f>GHA_Res_Elec!T8</f>
         <v>0</v>
       </c>
       <c r="O172" s="8">
-        <f>GHA_Res_Elec!U8</f>
         <v>1.6026478744006066E-3</v>
       </c>
       <c r="P172" s="8">
-        <f>GHA_Res_Elec!V8</f>
         <v>3.2052957488012132E-3</v>
       </c>
       <c r="Q172" s="8">
-        <f>GHA_Res_Elec!W8</f>
         <v>4.8079436232018203E-3</v>
       </c>
       <c r="R172" s="8">
-        <f>GHA_Res_Elec!X8</f>
         <v>6.4105914976024265E-3</v>
       </c>
       <c r="S172" s="8">
-        <f>GHA_Res_Elec!Y8</f>
         <v>8.0132393720030327E-3</v>
       </c>
       <c r="T172" s="8">
-        <f>GHA_Res_Elec!Z8</f>
         <v>9.6158872464036389E-3</v>
       </c>
       <c r="U172" s="8">
-        <f>GHA_Res_Elec!AA8</f>
         <v>1.1218535120804245E-2</v>
       </c>
       <c r="V172" s="8">
-        <f>GHA_Res_Elec!AB8</f>
         <v>1.2821182995204851E-2</v>
       </c>
       <c r="W172" s="8">
-        <f>GHA_Res_Elec!AC8</f>
         <v>1.4423830869605457E-2</v>
       </c>
       <c r="X172" s="8">
-        <f>GHA_Res_Elec!AD8</f>
         <v>1.6026478744006065E-2</v>
       </c>
       <c r="Y172" s="8">
-        <f>GHA_Res_Elec!AE8</f>
         <v>1.7629126618406672E-2</v>
       </c>
       <c r="Z172" s="8">
-        <f>GHA_Res_Elec!AF8</f>
         <v>1.9231774492807278E-2</v>
       </c>
       <c r="AA172" s="8">
-        <f>GHA_Res_Elec!AG8</f>
         <v>2.0834422367207884E-2</v>
       </c>
       <c r="AB172" s="8">
-        <f>GHA_Res_Elec!AH8</f>
         <v>2.243707024160849E-2</v>
       </c>
       <c r="AC172" s="8">
-        <f>GHA_Res_Elec!AI8</f>
         <v>2.4039718116009096E-2</v>
       </c>
       <c r="AD172" s="8">
-        <f>GHA_Res_Elec!AJ8</f>
         <v>2.5642365990409702E-2</v>
       </c>
       <c r="AE172" s="8">
-        <f>GHA_Res_Elec!AK8</f>
         <v>2.7245013864810309E-2</v>
       </c>
       <c r="AF172" s="8">
-        <f>GHA_Res_Elec!AL8</f>
         <v>2.8847661739210915E-2</v>
       </c>
       <c r="AG172" s="8">
-        <f>GHA_Res_Elec!AM8</f>
         <v>3.0450309613611521E-2</v>
       </c>
       <c r="AH172" s="8">
-        <f>GHA_Res_Elec!AN8</f>
         <v>3.2052957488012131E-2</v>
       </c>
       <c r="AI172" s="8">
-        <f>GHA_Res_Elec!AO8</f>
         <v>3.3655605362412737E-2</v>
       </c>
       <c r="AJ172" s="8">
-        <f>GHA_Res_Elec!AP8</f>
         <v>3.5258253236813343E-2</v>
       </c>
       <c r="AK172" s="8">
-        <f>GHA_Res_Elec!AQ8</f>
         <v>3.6860901111213949E-2</v>
       </c>
       <c r="AL172" s="8">
-        <f>GHA_Res_Elec!AR8</f>
         <v>3.8463548985614555E-2</v>
       </c>
       <c r="AM172" s="8">
-        <f>GHA_Res_Elec!AS8</f>
         <v>4.0066196860015162E-2</v>
       </c>
       <c r="AN172" s="8">
-        <f>GHA_Res_Elec!AT8</f>
         <v>4.1668844734415768E-2</v>
       </c>
       <c r="AO172" s="8">
-        <f>GHA_Res_Elec!AU8</f>
         <v>4.3271492608816374E-2</v>
       </c>
       <c r="AP172" s="8">
-        <f>GHA_Res_Elec!AV8</f>
         <v>4.487414048321698E-2</v>
       </c>
       <c r="AQ172" s="8">
-        <f>GHA_Res_Elec!AW8</f>
         <v>4.6476788357617593E-2</v>
       </c>
       <c r="AR172" s="8">
-        <f>GHA_Res_Elec!AX8</f>
         <v>4.9527222729403131E-2</v>
       </c>
       <c r="AS172" s="8">
-        <f>GHA_Res_Elec!AY8</f>
         <v>5.2577657101188446E-2</v>
       </c>
       <c r="AT172" s="8">
-        <f>GHA_Res_Elec!AZ8</f>
         <v>5.5628091472973984E-2</v>
       </c>
       <c r="AU172" s="8">
-        <f>GHA_Res_Elec!BA8</f>
         <v>5.8678525844759299E-2</v>
       </c>
       <c r="AV172" s="8">
-        <f>GHA_Res_Elec!BB8</f>
         <v>6.1728960216544726E-2</v>
       </c>
       <c r="AW172" s="8">
-        <f>GHA_Res_Elec!BC8</f>
         <v>6.4779394588330153E-2</v>
       </c>
       <c r="AX172" s="8">
-        <f>GHA_Res_Elec!BD8</f>
         <v>6.7829828960115468E-2</v>
       </c>
       <c r="AY172" s="8">
-        <f>GHA_Res_Elec!BE8</f>
         <v>7.0880263331900784E-2</v>
       </c>
       <c r="AZ172" s="8">
-        <f>GHA_Res_Elec!BF8</f>
         <v>7.3930697703686321E-2</v>
       </c>
       <c r="BA172" s="8">
-        <f>GHA_Res_Elec!BG8</f>
         <v>7.6981132075471637E-2</v>
       </c>
       <c r="BB172" s="8">
-        <f>GHA_Res_Elec!BH8</f>
         <v>6.8026241805126592E-2</v>
       </c>
       <c r="BC172" s="8">
-        <f>GHA_Res_Elec!BI8</f>
         <v>5.9071351534781547E-2</v>
       </c>
       <c r="BD172" s="8">
-        <f>GHA_Res_Elec!BJ8</f>
         <v>5.0116461264436502E-2</v>
       </c>
       <c r="BE172" s="8">
-        <f>GHA_Res_Elec!BK8</f>
         <v>4.1161570994091456E-2</v>
       </c>
       <c r="BF172" s="8">
-        <f>GHA_Res_Elec!BL8</f>
         <v>4.2593024142308256E-2</v>
       </c>
       <c r="BG172" s="8">
-        <f>GHA_Res_Elec!BM8</f>
         <v>4.4024477290524944E-2</v>
       </c>
       <c r="BH172" s="8">
-        <f>GHA_Res_Elec!BN8</f>
         <v>4.5455930438741521E-2</v>
       </c>
       <c r="BI172" s="8">
-        <f>GHA_Res_Elec!BO8</f>
         <v>4.6887383586958209E-2</v>
       </c>
       <c r="BJ172" s="8">
-        <f>GHA_Res_Elec!BP8</f>
         <v>4.8318836735174897E-2</v>
       </c>
       <c r="BK172" s="8">
-        <f>GHA_Res_Elec!BQ8</f>
         <v>4.8318836735174897E-2</v>
       </c>
     </row>
@@ -31890,1568 +31464,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF5C497-AD3B-4AF7-BBE5-AB90293C68F8}">
-  <dimension ref="A1:BQ14"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:BQ8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="9"/>
-    <col min="2" max="2" width="22" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.85546875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="9" customWidth="1"/>
-    <col min="7" max="8" width="9.85546875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="9" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:69" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" s="10">
-        <v>1960</v>
-      </c>
-      <c r="J1" s="10">
-        <v>1961</v>
-      </c>
-      <c r="K1" s="10">
-        <v>1962</v>
-      </c>
-      <c r="L1" s="10">
-        <v>1963</v>
-      </c>
-      <c r="M1" s="10">
-        <v>1964</v>
-      </c>
-      <c r="N1" s="10">
-        <v>1965</v>
-      </c>
-      <c r="O1" s="10">
-        <v>1966</v>
-      </c>
-      <c r="P1" s="10">
-        <v>1967</v>
-      </c>
-      <c r="Q1" s="10">
-        <v>1968</v>
-      </c>
-      <c r="R1" s="10">
-        <v>1969</v>
-      </c>
-      <c r="S1" s="10">
-        <v>1970</v>
-      </c>
-      <c r="T1" s="10">
-        <v>1971</v>
-      </c>
-      <c r="U1" s="10">
-        <v>1972</v>
-      </c>
-      <c r="V1" s="10">
-        <v>1973</v>
-      </c>
-      <c r="W1" s="10">
-        <v>1974</v>
-      </c>
-      <c r="X1" s="10">
-        <v>1975</v>
-      </c>
-      <c r="Y1" s="10">
-        <v>1976</v>
-      </c>
-      <c r="Z1" s="10">
-        <v>1977</v>
-      </c>
-      <c r="AA1" s="10">
-        <v>1978</v>
-      </c>
-      <c r="AB1" s="10">
-        <v>1979</v>
-      </c>
-      <c r="AC1" s="10">
-        <v>1980</v>
-      </c>
-      <c r="AD1" s="10">
-        <v>1981</v>
-      </c>
-      <c r="AE1" s="10">
-        <v>1982</v>
-      </c>
-      <c r="AF1" s="10">
-        <v>1983</v>
-      </c>
-      <c r="AG1" s="10">
-        <v>1984</v>
-      </c>
-      <c r="AH1" s="10">
-        <v>1985</v>
-      </c>
-      <c r="AI1" s="10">
-        <v>1986</v>
-      </c>
-      <c r="AJ1" s="10">
-        <v>1987</v>
-      </c>
-      <c r="AK1" s="10">
-        <v>1988</v>
-      </c>
-      <c r="AL1" s="10">
-        <v>1989</v>
-      </c>
-      <c r="AM1" s="10">
-        <v>1990</v>
-      </c>
-      <c r="AN1" s="10">
-        <v>1991</v>
-      </c>
-      <c r="AO1" s="10">
-        <v>1992</v>
-      </c>
-      <c r="AP1" s="10">
-        <v>1993</v>
-      </c>
-      <c r="AQ1" s="10">
-        <v>1994</v>
-      </c>
-      <c r="AR1" s="10">
-        <v>1995</v>
-      </c>
-      <c r="AS1" s="10">
-        <v>1996</v>
-      </c>
-      <c r="AT1" s="10">
-        <v>1997</v>
-      </c>
-      <c r="AU1" s="10">
-        <v>1998</v>
-      </c>
-      <c r="AV1" s="10">
-        <v>1999</v>
-      </c>
-      <c r="AW1" s="10">
-        <v>2000</v>
-      </c>
-      <c r="AX1" s="10">
-        <v>2001</v>
-      </c>
-      <c r="AY1" s="10">
-        <v>2002</v>
-      </c>
-      <c r="AZ1" s="10">
-        <v>2003</v>
-      </c>
-      <c r="BA1" s="10">
-        <v>2004</v>
-      </c>
-      <c r="BB1" s="10">
-        <v>2005</v>
-      </c>
-      <c r="BC1" s="10">
-        <v>2006</v>
-      </c>
-      <c r="BD1" s="10">
-        <v>2007</v>
-      </c>
-      <c r="BE1" s="10">
-        <v>2008</v>
-      </c>
-      <c r="BF1" s="10">
-        <v>2009</v>
-      </c>
-      <c r="BG1" s="10">
-        <v>2010</v>
-      </c>
-      <c r="BH1" s="10">
-        <v>2011</v>
-      </c>
-      <c r="BI1" s="10">
-        <v>2012</v>
-      </c>
-      <c r="BJ1" s="10">
-        <v>2013</v>
-      </c>
-      <c r="BK1" s="10">
-        <v>2014</v>
-      </c>
-      <c r="BL1" s="10">
-        <v>2015</v>
-      </c>
-      <c r="BM1" s="10">
-        <v>2016</v>
-      </c>
-      <c r="BN1" s="10">
-        <v>2017</v>
-      </c>
-      <c r="BO1" s="10">
-        <v>2018</v>
-      </c>
-      <c r="BP1" s="10">
-        <v>2019</v>
-      </c>
-      <c r="BQ1" s="10">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="2" spans="1:69" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="U2" s="13">
-        <v>0.39945979819920435</v>
-      </c>
-      <c r="V2" s="13">
-        <v>0.39891959639840868</v>
-      </c>
-      <c r="W2" s="13">
-        <v>0.39837939459761301</v>
-      </c>
-      <c r="X2" s="13">
-        <v>0.39783919279681734</v>
-      </c>
-      <c r="Y2" s="13">
-        <v>0.39729899099602167</v>
-      </c>
-      <c r="Z2" s="13">
-        <v>0.396758789195226</v>
-      </c>
-      <c r="AA2" s="13">
-        <v>0.39621858739443033</v>
-      </c>
-      <c r="AB2" s="13">
-        <v>0.39567838559363466</v>
-      </c>
-      <c r="AC2" s="13">
-        <v>0.39513818379283899</v>
-      </c>
-      <c r="AD2" s="13">
-        <v>0.39459798199204332</v>
-      </c>
-      <c r="AE2" s="13">
-        <v>0.39405778019124765</v>
-      </c>
-      <c r="AF2" s="13">
-        <v>0.39351757839045198</v>
-      </c>
-      <c r="AG2" s="13">
-        <v>0.39297737658965631</v>
-      </c>
-      <c r="AH2" s="13">
-        <v>0.39243717478886064</v>
-      </c>
-      <c r="AI2" s="13">
-        <v>0.39189697298806497</v>
-      </c>
-      <c r="AJ2" s="13">
-        <v>0.3913567711872693</v>
-      </c>
-      <c r="AK2" s="13">
-        <v>0.39081656938647363</v>
-      </c>
-      <c r="AL2" s="13">
-        <v>0.39027636758567796</v>
-      </c>
-      <c r="AM2" s="13">
-        <v>0.38973616578488229</v>
-      </c>
-      <c r="AN2" s="13">
-        <v>0.38919596398408662</v>
-      </c>
-      <c r="AO2" s="13">
-        <v>0.38865576218329095</v>
-      </c>
-      <c r="AP2" s="13">
-        <v>0.38811556038249528</v>
-      </c>
-      <c r="AQ2" s="13">
-        <v>0.38757535858169961</v>
-      </c>
-      <c r="AR2" s="13">
-        <v>0.38703515678090394</v>
-      </c>
-      <c r="AS2" s="13">
-        <v>0.38649495498010827</v>
-      </c>
-      <c r="AT2" s="13">
-        <v>0.3859547531793126</v>
-      </c>
-      <c r="AU2" s="13">
-        <v>0.38541455137851693</v>
-      </c>
-      <c r="AV2" s="13">
-        <v>0.38487434957772126</v>
-      </c>
-      <c r="AW2" s="13">
-        <v>0.38433414777692582</v>
-      </c>
-      <c r="AX2" s="13">
-        <v>0.39090073299923322</v>
-      </c>
-      <c r="AY2" s="13">
-        <v>0.39746731822154063</v>
-      </c>
-      <c r="AZ2" s="13">
-        <v>0.40403390344384804</v>
-      </c>
-      <c r="BA2" s="13">
-        <v>0.41060048866615545</v>
-      </c>
-      <c r="BB2" s="13">
-        <v>0.41716707388846286</v>
-      </c>
-      <c r="BC2" s="13">
-        <v>0.42373365911077027</v>
-      </c>
-      <c r="BD2" s="13">
-        <v>0.43030024433307767</v>
-      </c>
-      <c r="BE2" s="13">
-        <v>0.43686682955538508</v>
-      </c>
-      <c r="BF2" s="13">
-        <v>0.44343341477769249</v>
-      </c>
-      <c r="BG2" s="13">
-        <v>0.45</v>
-      </c>
-      <c r="BH2" s="13">
-        <v>0.45581779656677851</v>
-      </c>
-      <c r="BI2" s="13">
-        <v>0.46163559313355701</v>
-      </c>
-      <c r="BJ2" s="13">
-        <v>0.46745338970033551</v>
-      </c>
-      <c r="BK2" s="13">
-        <v>0.47327118626711401</v>
-      </c>
-      <c r="BL2" s="13">
-        <v>0.47027118626711401</v>
-      </c>
-      <c r="BM2" s="13">
-        <v>0.467271186267114</v>
-      </c>
-      <c r="BN2" s="13">
-        <v>0.464271186267114</v>
-      </c>
-      <c r="BO2" s="13">
-        <v>0.461271186267114</v>
-      </c>
-      <c r="BP2" s="13">
-        <v>0.45827118626711399</v>
-      </c>
-      <c r="BQ2" s="13">
-        <f>$BP2</f>
-        <v>0.45827118626711399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:69" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13">
-        <v>0</v>
-      </c>
-      <c r="U3" s="13">
-        <v>1.8301918934060827E-3</v>
-      </c>
-      <c r="V3" s="13">
-        <v>3.6603837868121655E-3</v>
-      </c>
-      <c r="W3" s="13">
-        <v>5.4905756802182482E-3</v>
-      </c>
-      <c r="X3" s="13">
-        <v>7.3207675736243309E-3</v>
-      </c>
-      <c r="Y3" s="13">
-        <v>9.1509594670304145E-3</v>
-      </c>
-      <c r="Z3" s="13">
-        <v>1.0981151360436498E-2</v>
-      </c>
-      <c r="AA3" s="13">
-        <v>1.2811343253842582E-2</v>
-      </c>
-      <c r="AB3" s="13">
-        <v>1.4641535147248665E-2</v>
-      </c>
-      <c r="AC3" s="13">
-        <v>1.6471727040654749E-2</v>
-      </c>
-      <c r="AD3" s="13">
-        <v>1.8301918934060833E-2</v>
-      </c>
-      <c r="AE3" s="13">
-        <v>2.0132110827466916E-2</v>
-      </c>
-      <c r="AF3" s="13">
-        <v>2.1962302720873E-2</v>
-      </c>
-      <c r="AG3" s="13">
-        <v>2.3792494614279083E-2</v>
-      </c>
-      <c r="AH3" s="13">
-        <v>2.5622686507685167E-2</v>
-      </c>
-      <c r="AI3" s="13">
-        <v>2.745287840109125E-2</v>
-      </c>
-      <c r="AJ3" s="13">
-        <v>2.9283070294497334E-2</v>
-      </c>
-      <c r="AK3" s="13">
-        <v>3.1113262187903418E-2</v>
-      </c>
-      <c r="AL3" s="13">
-        <v>3.2943454081309498E-2</v>
-      </c>
-      <c r="AM3" s="13">
-        <v>3.4773645974715578E-2</v>
-      </c>
-      <c r="AN3" s="13">
-        <v>3.6603837868121658E-2</v>
-      </c>
-      <c r="AO3" s="13">
-        <v>3.8434029761527738E-2</v>
-      </c>
-      <c r="AP3" s="13">
-        <v>4.0264221654933818E-2</v>
-      </c>
-      <c r="AQ3" s="13">
-        <v>4.2094413548339898E-2</v>
-      </c>
-      <c r="AR3" s="13">
-        <v>4.3924605441745979E-2</v>
-      </c>
-      <c r="AS3" s="13">
-        <v>4.5754797335152059E-2</v>
-      </c>
-      <c r="AT3" s="13">
-        <v>4.7584989228558139E-2</v>
-      </c>
-      <c r="AU3" s="13">
-        <v>4.9415181121964219E-2</v>
-      </c>
-      <c r="AV3" s="13">
-        <v>5.1245373015370299E-2</v>
-      </c>
-      <c r="AW3" s="13">
-        <v>5.30755649087764E-2</v>
-      </c>
-      <c r="AX3" s="13">
-        <v>5.2749140493370456E-2</v>
-      </c>
-      <c r="AY3" s="13">
-        <v>5.2422716077964518E-2</v>
-      </c>
-      <c r="AZ3" s="13">
-        <v>5.209629166255858E-2</v>
-      </c>
-      <c r="BA3" s="13">
-        <v>5.1769867247152643E-2</v>
-      </c>
-      <c r="BB3" s="13">
-        <v>5.1443442831746705E-2</v>
-      </c>
-      <c r="BC3" s="13">
-        <v>5.1117018416340768E-2</v>
-      </c>
-      <c r="BD3" s="13">
-        <v>5.079059400093483E-2</v>
-      </c>
-      <c r="BE3" s="13">
-        <v>5.0464169585528892E-2</v>
-      </c>
-      <c r="BF3" s="13">
-        <v>5.0137745170122955E-2</v>
-      </c>
-      <c r="BG3" s="13">
-        <v>4.981132075471699E-2</v>
-      </c>
-      <c r="BH3" s="13">
-        <v>5.1768685097050404E-2</v>
-      </c>
-      <c r="BI3" s="13">
-        <v>5.3726049439383819E-2</v>
-      </c>
-      <c r="BJ3" s="13">
-        <v>5.5683413781717234E-2</v>
-      </c>
-      <c r="BK3" s="13">
-        <v>5.7640778124050641E-2</v>
-      </c>
-      <c r="BL3" s="13">
-        <v>5.8619460295217349E-2</v>
-      </c>
-      <c r="BM3" s="13">
-        <v>5.9598142466384056E-2</v>
-      </c>
-      <c r="BN3" s="13">
-        <v>6.0576824637550764E-2</v>
-      </c>
-      <c r="BO3" s="13">
-        <v>6.1555506808717471E-2</v>
-      </c>
-      <c r="BP3" s="13">
-        <v>6.2534188979884178E-2</v>
-      </c>
-      <c r="BQ3" s="13">
-        <f t="shared" ref="BQ3:BQ8" si="0">$BP3</f>
-        <v>6.2534188979884178E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:69" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13">
-        <v>0</v>
-      </c>
-      <c r="U4" s="13">
-        <v>4.5754797335152068E-4</v>
-      </c>
-      <c r="V4" s="13">
-        <v>9.1509594670304137E-4</v>
-      </c>
-      <c r="W4" s="13">
-        <v>1.372643920054562E-3</v>
-      </c>
-      <c r="X4" s="13">
-        <v>1.8301918934060827E-3</v>
-      </c>
-      <c r="Y4" s="13">
-        <v>2.2877398667576036E-3</v>
-      </c>
-      <c r="Z4" s="13">
-        <v>2.7452878401091245E-3</v>
-      </c>
-      <c r="AA4" s="13">
-        <v>3.2028358134606454E-3</v>
-      </c>
-      <c r="AB4" s="13">
-        <v>3.6603837868121663E-3</v>
-      </c>
-      <c r="AC4" s="13">
-        <v>4.1179317601636872E-3</v>
-      </c>
-      <c r="AD4" s="13">
-        <v>4.5754797335152081E-3</v>
-      </c>
-      <c r="AE4" s="13">
-        <v>5.033027706866729E-3</v>
-      </c>
-      <c r="AF4" s="13">
-        <v>5.4905756802182499E-3</v>
-      </c>
-      <c r="AG4" s="13">
-        <v>5.9481236535697708E-3</v>
-      </c>
-      <c r="AH4" s="13">
-        <v>6.4056716269212917E-3</v>
-      </c>
-      <c r="AI4" s="13">
-        <v>6.8632196002728126E-3</v>
-      </c>
-      <c r="AJ4" s="13">
-        <v>7.3207675736243335E-3</v>
-      </c>
-      <c r="AK4" s="13">
-        <v>7.7783155469758544E-3</v>
-      </c>
-      <c r="AL4" s="13">
-        <v>8.2358635203273745E-3</v>
-      </c>
-      <c r="AM4" s="13">
-        <v>8.6934114936788945E-3</v>
-      </c>
-      <c r="AN4" s="13">
-        <v>9.1509594670304145E-3</v>
-      </c>
-      <c r="AO4" s="13">
-        <v>9.6085074403819346E-3</v>
-      </c>
-      <c r="AP4" s="13">
-        <v>1.0066055413733455E-2</v>
-      </c>
-      <c r="AQ4" s="13">
-        <v>1.0523603387084975E-2</v>
-      </c>
-      <c r="AR4" s="13">
-        <v>1.0981151360436495E-2</v>
-      </c>
-      <c r="AS4" s="13">
-        <v>1.1438699333788015E-2</v>
-      </c>
-      <c r="AT4" s="13">
-        <v>1.1896247307139535E-2</v>
-      </c>
-      <c r="AU4" s="13">
-        <v>1.2353795280491055E-2</v>
-      </c>
-      <c r="AV4" s="13">
-        <v>1.2811343253842575E-2</v>
-      </c>
-      <c r="AW4" s="13">
-        <v>1.32688912271941E-2</v>
-      </c>
-      <c r="AX4" s="13">
-        <v>1.5262756821455822E-2</v>
-      </c>
-      <c r="AY4" s="13">
-        <v>1.7256622415717546E-2</v>
-      </c>
-      <c r="AZ4" s="13">
-        <v>1.9250488009979271E-2</v>
-      </c>
-      <c r="BA4" s="13">
-        <v>2.1244353604240995E-2</v>
-      </c>
-      <c r="BB4" s="13">
-        <v>2.3238219198502719E-2</v>
-      </c>
-      <c r="BC4" s="13">
-        <v>2.5232084792764443E-2</v>
-      </c>
-      <c r="BD4" s="13">
-        <v>2.7225950387026167E-2</v>
-      </c>
-      <c r="BE4" s="13">
-        <v>2.9219815981287891E-2</v>
-      </c>
-      <c r="BF4" s="13">
-        <v>3.1213681575549615E-2</v>
-      </c>
-      <c r="BG4" s="13">
-        <v>3.3207547169811329E-2</v>
-      </c>
-      <c r="BH4" s="13">
-        <v>3.9315854908371153E-2</v>
-      </c>
-      <c r="BI4" s="13">
-        <v>4.5424162646930985E-2</v>
-      </c>
-      <c r="BJ4" s="13">
-        <v>5.1532470385490817E-2</v>
-      </c>
-      <c r="BK4" s="13">
-        <v>5.7640778124050641E-2</v>
-      </c>
-      <c r="BL4" s="13">
-        <v>6.0694931993330557E-2</v>
-      </c>
-      <c r="BM4" s="13">
-        <v>6.3749085862610466E-2</v>
-      </c>
-      <c r="BN4" s="13">
-        <v>6.6803239731890382E-2</v>
-      </c>
-      <c r="BO4" s="13">
-        <v>6.9857393601170298E-2</v>
-      </c>
-      <c r="BP4" s="13">
-        <v>7.2911547470450214E-2</v>
-      </c>
-      <c r="BQ4" s="13">
-        <f t="shared" si="0"/>
-        <v>7.2911547470450214E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:69" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="U5" s="13">
-        <v>0.39765943302180307</v>
-      </c>
-      <c r="V5" s="13">
-        <v>0.39531886604360611</v>
-      </c>
-      <c r="W5" s="13">
-        <v>0.39297829906540915</v>
-      </c>
-      <c r="X5" s="13">
-        <v>0.3906377320872122</v>
-      </c>
-      <c r="Y5" s="13">
-        <v>0.38829716510901524</v>
-      </c>
-      <c r="Z5" s="13">
-        <v>0.38595659813081828</v>
-      </c>
-      <c r="AA5" s="13">
-        <v>0.38361603115262133</v>
-      </c>
-      <c r="AB5" s="13">
-        <v>0.38127546417442437</v>
-      </c>
-      <c r="AC5" s="13">
-        <v>0.37893489719622742</v>
-      </c>
-      <c r="AD5" s="13">
-        <v>0.37659433021803046</v>
-      </c>
-      <c r="AE5" s="13">
-        <v>0.3742537632398335</v>
-      </c>
-      <c r="AF5" s="13">
-        <v>0.37191319626163655</v>
-      </c>
-      <c r="AG5" s="13">
-        <v>0.36957262928343959</v>
-      </c>
-      <c r="AH5" s="13">
-        <v>0.36723206230524263</v>
-      </c>
-      <c r="AI5" s="13">
-        <v>0.36489149532704568</v>
-      </c>
-      <c r="AJ5" s="13">
-        <v>0.36255092834884872</v>
-      </c>
-      <c r="AK5" s="13">
-        <v>0.36021036137065177</v>
-      </c>
-      <c r="AL5" s="13">
-        <v>0.35786979439245481</v>
-      </c>
-      <c r="AM5" s="13">
-        <v>0.35552922741425785</v>
-      </c>
-      <c r="AN5" s="13">
-        <v>0.3531886604360609</v>
-      </c>
-      <c r="AO5" s="13">
-        <v>0.35084809345786394</v>
-      </c>
-      <c r="AP5" s="13">
-        <v>0.34850752647966698</v>
-      </c>
-      <c r="AQ5" s="13">
-        <v>0.34616695950147003</v>
-      </c>
-      <c r="AR5" s="13">
-        <v>0.34382639252327307</v>
-      </c>
-      <c r="AS5" s="13">
-        <v>0.34148582554507612</v>
-      </c>
-      <c r="AT5" s="13">
-        <v>0.33914525856687916</v>
-      </c>
-      <c r="AU5" s="13">
-        <v>0.3368046915886822</v>
-      </c>
-      <c r="AV5" s="13">
-        <v>0.33446412461048525</v>
-      </c>
-      <c r="AW5" s="13">
-        <v>0.33212355763228774</v>
-      </c>
-      <c r="AX5" s="13">
-        <v>0.31891120186905897</v>
-      </c>
-      <c r="AY5" s="13">
-        <v>0.3056988461058302</v>
-      </c>
-      <c r="AZ5" s="13">
-        <v>0.29248649034260144</v>
-      </c>
-      <c r="BA5" s="13">
-        <v>0.27927413457937267</v>
-      </c>
-      <c r="BB5" s="13">
-        <v>0.2660617788161439</v>
-      </c>
-      <c r="BC5" s="13">
-        <v>0.25284942305291513</v>
-      </c>
-      <c r="BD5" s="13">
-        <v>0.23963706728968637</v>
-      </c>
-      <c r="BE5" s="13">
-        <v>0.2264247115264576</v>
-      </c>
-      <c r="BF5" s="13">
-        <v>0.21321235576322883</v>
-      </c>
-      <c r="BG5" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="BH5" s="13">
-        <v>0.19125</v>
-      </c>
-      <c r="BI5" s="13">
-        <v>0.1825</v>
-      </c>
-      <c r="BJ5" s="13">
-        <v>0.17374999999999999</v>
-      </c>
-      <c r="BK5" s="13">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="BL5" s="13">
-        <v>0.16062500000000002</v>
-      </c>
-      <c r="BM5" s="13">
-        <v>0.15625000000000003</v>
-      </c>
-      <c r="BN5" s="13">
-        <v>0.15187500000000004</v>
-      </c>
-      <c r="BO5" s="13">
-        <v>0.14750000000000005</v>
-      </c>
-      <c r="BP5" s="13">
-        <v>0.14312500000000006</v>
-      </c>
-      <c r="BQ5" s="13">
-        <f t="shared" si="0"/>
-        <v>0.14312500000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="U6" s="13">
-        <v>0.14835974586407996</v>
-      </c>
-      <c r="V6" s="13">
-        <v>0.14671949172815993</v>
-      </c>
-      <c r="W6" s="13">
-        <v>0.1450792375922399</v>
-      </c>
-      <c r="X6" s="13">
-        <v>0.14343898345631986</v>
-      </c>
-      <c r="Y6" s="13">
-        <v>0.14179872932039983</v>
-      </c>
-      <c r="Z6" s="13">
-        <v>0.1401584751844798</v>
-      </c>
-      <c r="AA6" s="13">
-        <v>0.13851822104855976</v>
-      </c>
-      <c r="AB6" s="13">
-        <v>0.13687796691263973</v>
-      </c>
-      <c r="AC6" s="13">
-        <v>0.1352377127767197</v>
-      </c>
-      <c r="AD6" s="13">
-        <v>0.13359745864079967</v>
-      </c>
-      <c r="AE6" s="13">
-        <v>0.13195720450487963</v>
-      </c>
-      <c r="AF6" s="13">
-        <v>0.1303169503689596</v>
-      </c>
-      <c r="AG6" s="13">
-        <v>0.12867669623303957</v>
-      </c>
-      <c r="AH6" s="13">
-        <v>0.12703644209711953</v>
-      </c>
-      <c r="AI6" s="13">
-        <v>0.1253961879611995</v>
-      </c>
-      <c r="AJ6" s="13">
-        <v>0.12375593382527947</v>
-      </c>
-      <c r="AK6" s="13">
-        <v>0.12211567968935944</v>
-      </c>
-      <c r="AL6" s="13">
-        <v>0.1204754255534394</v>
-      </c>
-      <c r="AM6" s="13">
-        <v>0.11883517141751937</v>
-      </c>
-      <c r="AN6" s="13">
-        <v>0.11719491728159934</v>
-      </c>
-      <c r="AO6" s="13">
-        <v>0.1155546631456793</v>
-      </c>
-      <c r="AP6" s="13">
-        <v>0.11391440900975927</v>
-      </c>
-      <c r="AQ6" s="13">
-        <v>0.11227415487383924</v>
-      </c>
-      <c r="AR6" s="13">
-        <v>0.11063390073791921</v>
-      </c>
-      <c r="AS6" s="13">
-        <v>0.10899364660199917</v>
-      </c>
-      <c r="AT6" s="13">
-        <v>0.10735339246607914</v>
-      </c>
-      <c r="AU6" s="13">
-        <v>0.10571313833015911</v>
-      </c>
-      <c r="AV6" s="13">
-        <v>0.10407288419423907</v>
-      </c>
-      <c r="AW6" s="13">
-        <v>0.10243263005831894</v>
-      </c>
-      <c r="AX6" s="13">
-        <v>0.10418936705248705</v>
-      </c>
-      <c r="AY6" s="13">
-        <v>0.10594610404665515</v>
-      </c>
-      <c r="AZ6" s="13">
-        <v>0.10770284104082326</v>
-      </c>
-      <c r="BA6" s="13">
-        <v>0.10945957803499136</v>
-      </c>
-      <c r="BB6" s="13">
-        <v>0.11121631502915946</v>
-      </c>
-      <c r="BC6" s="13">
-        <v>0.11297305202332757</v>
-      </c>
-      <c r="BD6" s="13">
-        <v>0.11472978901749567</v>
-      </c>
-      <c r="BE6" s="13">
-        <v>0.11648652601166377</v>
-      </c>
-      <c r="BF6" s="13">
-        <v>0.11824326300583188</v>
-      </c>
-      <c r="BG6" s="13">
-        <v>0.12</v>
-      </c>
-      <c r="BH6" s="13">
-        <v>0.1242142810817822</v>
-      </c>
-      <c r="BI6" s="13">
-        <v>0.12842856216356441</v>
-      </c>
-      <c r="BJ6" s="13">
-        <v>0.13264284324534661</v>
-      </c>
-      <c r="BK6" s="13">
-        <v>0.13685712432712885</v>
-      </c>
-      <c r="BL6" s="13">
-        <v>0.13896426486801997</v>
-      </c>
-      <c r="BM6" s="13">
-        <v>0.14107140540891108</v>
-      </c>
-      <c r="BN6" s="13">
-        <v>0.1431785459498022</v>
-      </c>
-      <c r="BO6" s="13">
-        <v>0.14528568649069332</v>
-      </c>
-      <c r="BP6" s="13">
-        <v>0.14739282703158443</v>
-      </c>
-      <c r="BQ6" s="13">
-        <f t="shared" si="0"/>
-        <v>0.14739282703158443</v>
-      </c>
-    </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="U7" s="13">
-        <v>5.0630635173754462E-2</v>
-      </c>
-      <c r="V7" s="13">
-        <v>5.1261270347508922E-2</v>
-      </c>
-      <c r="W7" s="13">
-        <v>5.1891905521263382E-2</v>
-      </c>
-      <c r="X7" s="13">
-        <v>5.2522540695017841E-2</v>
-      </c>
-      <c r="Y7" s="13">
-        <v>5.3153175868772301E-2</v>
-      </c>
-      <c r="Z7" s="13">
-        <v>5.3783811042526761E-2</v>
-      </c>
-      <c r="AA7" s="13">
-        <v>5.441444621628122E-2</v>
-      </c>
-      <c r="AB7" s="13">
-        <v>5.504508139003568E-2</v>
-      </c>
-      <c r="AC7" s="13">
-        <v>5.567571656379014E-2</v>
-      </c>
-      <c r="AD7" s="13">
-        <v>5.6306351737544599E-2</v>
-      </c>
-      <c r="AE7" s="13">
-        <v>5.6936986911299059E-2</v>
-      </c>
-      <c r="AF7" s="13">
-        <v>5.7567622085053519E-2</v>
-      </c>
-      <c r="AG7" s="13">
-        <v>5.8198257258807978E-2</v>
-      </c>
-      <c r="AH7" s="13">
-        <v>5.8828892432562438E-2</v>
-      </c>
-      <c r="AI7" s="13">
-        <v>5.9459527606316898E-2</v>
-      </c>
-      <c r="AJ7" s="13">
-        <v>6.0090162780071357E-2</v>
-      </c>
-      <c r="AK7" s="13">
-        <v>6.0720797953825817E-2</v>
-      </c>
-      <c r="AL7" s="13">
-        <v>6.1351433127580277E-2</v>
-      </c>
-      <c r="AM7" s="13">
-        <v>6.1982068301334736E-2</v>
-      </c>
-      <c r="AN7" s="13">
-        <v>6.2612703475089196E-2</v>
-      </c>
-      <c r="AO7" s="13">
-        <v>6.3243338648843656E-2</v>
-      </c>
-      <c r="AP7" s="13">
-        <v>6.3873973822598115E-2</v>
-      </c>
-      <c r="AQ7" s="13">
-        <v>6.4504608996352575E-2</v>
-      </c>
-      <c r="AR7" s="13">
-        <v>6.5135244170107034E-2</v>
-      </c>
-      <c r="AS7" s="13">
-        <v>6.5765879343861494E-2</v>
-      </c>
-      <c r="AT7" s="13">
-        <v>6.6396514517615954E-2</v>
-      </c>
-      <c r="AU7" s="13">
-        <v>6.7027149691370413E-2</v>
-      </c>
-      <c r="AV7" s="13">
-        <v>6.7657784865124873E-2</v>
-      </c>
-      <c r="AW7" s="13">
-        <v>6.8288420038879305E-2</v>
-      </c>
-      <c r="AX7" s="13">
-        <v>6.8459578034991378E-2</v>
-      </c>
-      <c r="AY7" s="13">
-        <v>6.8630736031103451E-2</v>
-      </c>
-      <c r="AZ7" s="13">
-        <v>6.8801894027215524E-2</v>
-      </c>
-      <c r="BA7" s="13">
-        <v>6.8973052023327597E-2</v>
-      </c>
-      <c r="BB7" s="13">
-        <v>6.914421001943967E-2</v>
-      </c>
-      <c r="BC7" s="13">
-        <v>6.9315368015551743E-2</v>
-      </c>
-      <c r="BD7" s="13">
-        <v>6.9486526011663816E-2</v>
-      </c>
-      <c r="BE7" s="13">
-        <v>6.9657684007775889E-2</v>
-      </c>
-      <c r="BF7" s="13">
-        <v>6.9828842003887961E-2</v>
-      </c>
-      <c r="BG7" s="13">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BH7" s="13">
-        <v>6.9607140540891108E-2</v>
-      </c>
-      <c r="BI7" s="13">
-        <v>6.9214281081782209E-2</v>
-      </c>
-      <c r="BJ7" s="13">
-        <v>6.8821421622673309E-2</v>
-      </c>
-      <c r="BK7" s="13">
-        <v>6.8428562163564424E-2</v>
-      </c>
-      <c r="BL7" s="13">
-        <v>6.8232132434009982E-2</v>
-      </c>
-      <c r="BM7" s="13">
-        <v>6.8035702704455539E-2</v>
-      </c>
-      <c r="BN7" s="13">
-        <v>6.7839272974901096E-2</v>
-      </c>
-      <c r="BO7" s="13">
-        <v>6.7642843245346654E-2</v>
-      </c>
-      <c r="BP7" s="13">
-        <v>6.7446413515792211E-2</v>
-      </c>
-      <c r="BQ7" s="13">
-        <f t="shared" si="0"/>
-        <v>6.7446413515792211E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="T8" s="13">
-        <v>0</v>
-      </c>
-      <c r="U8" s="13">
-        <v>1.6026478744006066E-3</v>
-      </c>
-      <c r="V8" s="13">
-        <v>3.2052957488012132E-3</v>
-      </c>
-      <c r="W8" s="13">
-        <v>4.8079436232018203E-3</v>
-      </c>
-      <c r="X8" s="13">
-        <v>6.4105914976024265E-3</v>
-      </c>
-      <c r="Y8" s="13">
-        <v>8.0132393720030327E-3</v>
-      </c>
-      <c r="Z8" s="13">
-        <v>9.6158872464036389E-3</v>
-      </c>
-      <c r="AA8" s="13">
-        <v>1.1218535120804245E-2</v>
-      </c>
-      <c r="AB8" s="13">
-        <v>1.2821182995204851E-2</v>
-      </c>
-      <c r="AC8" s="13">
-        <v>1.4423830869605457E-2</v>
-      </c>
-      <c r="AD8" s="13">
-        <v>1.6026478744006065E-2</v>
-      </c>
-      <c r="AE8" s="13">
-        <v>1.7629126618406672E-2</v>
-      </c>
-      <c r="AF8" s="13">
-        <v>1.9231774492807278E-2</v>
-      </c>
-      <c r="AG8" s="13">
-        <v>2.0834422367207884E-2</v>
-      </c>
-      <c r="AH8" s="13">
-        <v>2.243707024160849E-2</v>
-      </c>
-      <c r="AI8" s="13">
-        <v>2.4039718116009096E-2</v>
-      </c>
-      <c r="AJ8" s="13">
-        <v>2.5642365990409702E-2</v>
-      </c>
-      <c r="AK8" s="13">
-        <v>2.7245013864810309E-2</v>
-      </c>
-      <c r="AL8" s="13">
-        <v>2.8847661739210915E-2</v>
-      </c>
-      <c r="AM8" s="13">
-        <v>3.0450309613611521E-2</v>
-      </c>
-      <c r="AN8" s="13">
-        <v>3.2052957488012131E-2</v>
-      </c>
-      <c r="AO8" s="13">
-        <v>3.3655605362412737E-2</v>
-      </c>
-      <c r="AP8" s="13">
-        <v>3.5258253236813343E-2</v>
-      </c>
-      <c r="AQ8" s="13">
-        <v>3.6860901111213949E-2</v>
-      </c>
-      <c r="AR8" s="13">
-        <v>3.8463548985614555E-2</v>
-      </c>
-      <c r="AS8" s="13">
-        <v>4.0066196860015162E-2</v>
-      </c>
-      <c r="AT8" s="13">
-        <v>4.1668844734415768E-2</v>
-      </c>
-      <c r="AU8" s="13">
-        <v>4.3271492608816374E-2</v>
-      </c>
-      <c r="AV8" s="13">
-        <v>4.487414048321698E-2</v>
-      </c>
-      <c r="AW8" s="13">
-        <v>4.6476788357617593E-2</v>
-      </c>
-      <c r="AX8" s="13">
-        <v>4.9527222729403131E-2</v>
-      </c>
-      <c r="AY8" s="13">
-        <v>5.2577657101188446E-2</v>
-      </c>
-      <c r="AZ8" s="13">
-        <v>5.5628091472973984E-2</v>
-      </c>
-      <c r="BA8" s="13">
-        <v>5.8678525844759299E-2</v>
-      </c>
-      <c r="BB8" s="13">
-        <v>6.1728960216544726E-2</v>
-      </c>
-      <c r="BC8" s="13">
-        <v>6.4779394588330153E-2</v>
-      </c>
-      <c r="BD8" s="13">
-        <v>6.7829828960115468E-2</v>
-      </c>
-      <c r="BE8" s="13">
-        <v>7.0880263331900784E-2</v>
-      </c>
-      <c r="BF8" s="13">
-        <v>7.3930697703686321E-2</v>
-      </c>
-      <c r="BG8" s="13">
-        <v>7.6981132075471637E-2</v>
-      </c>
-      <c r="BH8" s="13">
-        <v>6.8026241805126592E-2</v>
-      </c>
-      <c r="BI8" s="13">
-        <v>5.9071351534781547E-2</v>
-      </c>
-      <c r="BJ8" s="13">
-        <v>5.0116461264436502E-2</v>
-      </c>
-      <c r="BK8" s="13">
-        <v>4.1161570994091456E-2</v>
-      </c>
-      <c r="BL8" s="13">
-        <v>4.2593024142308256E-2</v>
-      </c>
-      <c r="BM8" s="13">
-        <v>4.4024477290524944E-2</v>
-      </c>
-      <c r="BN8" s="13">
-        <v>4.5455930438741521E-2</v>
-      </c>
-      <c r="BO8" s="13">
-        <v>4.6887383586958209E-2</v>
-      </c>
-      <c r="BP8" s="13">
-        <v>4.8318836735174897E-2</v>
-      </c>
-      <c r="BQ8" s="13">
-        <f t="shared" si="0"/>
-        <v>4.8318836735174897E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="E9" s="12"/>
-      <c r="T9" s="13"/>
-    </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="E10" s="12"/>
-      <c r="T10" s="13"/>
-    </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="E11" s="12"/>
-      <c r="T11" s="13"/>
-    </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="E12" s="12"/>
-      <c r="T12" s="13"/>
-    </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="E13" s="12"/>
-      <c r="T13" s="13"/>
-    </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="T14" s="13"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>